--- a/BackTest/2019-11-14 BackTest QTUM.xlsx
+++ b/BackTest/2019-11-14 BackTest QTUM.xlsx
@@ -451,20 +451,14 @@
         <v>2583.333333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>2656</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -499,11 +493,7 @@
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -538,11 +528,7 @@
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -577,11 +563,7 @@
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -616,11 +598,7 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -655,11 +633,7 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -694,11 +668,7 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -733,11 +703,7 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -772,11 +738,7 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -811,11 +773,7 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -850,11 +808,7 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -889,11 +843,7 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -928,11 +878,7 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -967,11 +913,7 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1006,11 +948,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +983,7 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1084,11 +1018,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1123,11 +1053,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1162,11 +1088,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1201,11 +1123,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1240,11 +1158,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1279,11 +1193,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1318,11 +1228,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1357,11 +1263,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1396,11 +1298,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1435,11 +1333,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1368,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1513,11 +1403,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1552,11 +1438,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1591,11 +1473,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1630,11 +1508,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1669,11 +1543,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1708,11 +1578,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1747,11 +1613,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1786,11 +1648,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1825,11 +1683,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1864,11 +1718,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +1753,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1942,11 +1788,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1981,11 +1823,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2020,11 +1858,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2059,11 +1893,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2098,11 +1928,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2137,11 +1963,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2176,11 +1998,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2215,11 +2033,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2254,11 +2068,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2293,11 +2103,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2138,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2371,11 +2173,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2410,11 +2208,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2449,11 +2243,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2488,11 +2278,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2520,20 +2306,14 @@
         <v>2655.15</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>2640</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2568,11 +2348,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2607,11 +2383,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2646,11 +2418,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2685,11 +2453,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2724,11 +2488,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2763,11 +2523,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2802,11 +2558,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2841,11 +2593,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2880,11 +2628,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2919,11 +2663,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2958,11 +2698,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2997,11 +2733,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3036,11 +2768,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3075,11 +2803,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3114,11 +2838,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3153,11 +2873,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3192,11 +2908,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3231,11 +2943,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3270,11 +2978,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3309,11 +3013,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3348,11 +3048,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3387,11 +3083,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3426,11 +3118,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3465,11 +3153,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3504,11 +3188,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3543,11 +3223,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3582,11 +3258,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3621,11 +3293,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3660,11 +3328,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3699,11 +3363,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3738,11 +3398,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3777,11 +3433,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3816,11 +3468,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3855,11 +3503,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3894,11 +3538,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3933,11 +3573,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3972,11 +3608,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4011,11 +3643,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4050,11 +3678,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4089,11 +3713,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4128,11 +3748,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4167,11 +3783,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4206,11 +3818,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4245,11 +3853,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4284,11 +3888,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4323,11 +3923,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4362,11 +3958,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4401,11 +3993,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4440,11 +4028,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4479,11 +4063,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4518,11 +4098,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4557,11 +4133,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4596,11 +4168,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4635,11 +4203,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4674,11 +4238,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4713,11 +4273,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4752,11 +4308,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4791,11 +4343,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4830,11 +4378,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4869,11 +4413,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4908,11 +4448,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4947,11 +4483,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4986,11 +4518,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5025,11 +4553,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5064,11 +4588,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5103,11 +4623,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5142,11 +4658,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5181,11 +4693,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5220,11 +4728,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5259,11 +4763,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5298,11 +4798,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5337,11 +4833,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5376,11 +4868,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5415,11 +4903,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5454,11 +4938,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5493,11 +4973,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5532,11 +5008,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5571,11 +5043,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5610,11 +5078,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5649,11 +5113,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5688,11 +5148,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5727,11 +5183,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5766,11 +5218,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5805,11 +5253,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5844,11 +5288,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5883,11 +5323,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5922,11 +5358,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5961,11 +5393,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6000,11 +5428,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6039,11 +5463,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6078,11 +5498,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6117,11 +5533,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6156,11 +5568,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6195,11 +5603,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6234,11 +5638,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6273,11 +5673,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6312,11 +5708,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6351,11 +5743,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6390,11 +5778,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6429,11 +5813,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6468,11 +5848,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6507,11 +5883,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6546,11 +5918,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6585,11 +5953,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6624,11 +5988,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6663,11 +6023,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6702,11 +6058,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6741,11 +6093,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6780,11 +6128,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6819,11 +6163,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6858,11 +6198,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6897,11 +6233,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6936,11 +6268,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6975,11 +6303,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -7014,11 +6338,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7053,11 +6373,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7092,11 +6408,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7131,11 +6443,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7170,11 +6478,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7209,11 +6513,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7248,11 +6548,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7287,11 +6583,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7326,11 +6618,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7365,11 +6653,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7404,11 +6688,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7443,11 +6723,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7482,11 +6758,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7521,11 +6793,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7560,11 +6828,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7599,11 +6863,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7638,11 +6898,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7677,11 +6933,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7716,11 +6968,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7755,11 +7003,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7794,11 +7038,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7833,11 +7073,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7872,11 +7108,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7911,11 +7143,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7950,11 +7178,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7989,11 +7213,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -8028,11 +7248,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -8067,11 +7283,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -8106,11 +7318,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8145,11 +7353,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8184,11 +7388,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8223,11 +7423,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8262,11 +7458,7 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8294,20 +7486,14 @@
         <v>2657.483333333333</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="n">
-        <v>2623</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8335,20 +7521,14 @@
         <v>2656.8</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
-        <v>2621</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8376,20 +7556,14 @@
         <v>2655.85</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
-        <v>2616</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8417,20 +7591,14 @@
         <v>2654.616666666667</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="n">
-        <v>2606</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8458,20 +7626,14 @@
         <v>2653.366666666667</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="n">
-        <v>2603</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8499,20 +7661,14 @@
         <v>2652.233333333333</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
-        <v>2603</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8540,20 +7696,14 @@
         <v>2651.033333333333</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
-        <v>2605</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8581,20 +7731,14 @@
         <v>2649.833333333333</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>2604</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8622,20 +7766,14 @@
         <v>2648.583333333333</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>2605</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8663,20 +7801,14 @@
         <v>2647.383333333333</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>2602</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8704,20 +7836,14 @@
         <v>2646.183333333333</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
-        <v>2604</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8745,20 +7871,14 @@
         <v>2645.016666666667</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
-        <v>2604</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8786,20 +7906,14 @@
         <v>2643.966666666667</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
-        <v>2607</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8833,14 +7947,12 @@
         <v>0</v>
       </c>
       <c r="J216" t="n">
-        <v>2614</v>
-      </c>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2615</v>
+      </c>
+      <c r="K216" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8876,10 +7988,12 @@
       <c r="J217" t="n">
         <v>2614</v>
       </c>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>2615</v>
+      </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M217" t="n">
@@ -8917,7 +8031,9 @@
       <c r="J218" t="n">
         <v>2609</v>
       </c>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>2615</v>
+      </c>
       <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8956,9 +8072,11 @@
         <v>0</v>
       </c>
       <c r="J219" t="n">
-        <v>2614</v>
-      </c>
-      <c r="K219" t="inlineStr"/>
+        <v>2609</v>
+      </c>
+      <c r="K219" t="n">
+        <v>2615</v>
+      </c>
       <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8997,9 +8115,11 @@
         <v>0</v>
       </c>
       <c r="J220" t="n">
-        <v>2620</v>
-      </c>
-      <c r="K220" t="inlineStr"/>
+        <v>2619</v>
+      </c>
+      <c r="K220" t="n">
+        <v>2615</v>
+      </c>
       <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9038,9 +8158,11 @@
         <v>0</v>
       </c>
       <c r="J221" t="n">
-        <v>2622</v>
-      </c>
-      <c r="K221" t="inlineStr"/>
+        <v>2623</v>
+      </c>
+      <c r="K221" t="n">
+        <v>2615</v>
+      </c>
       <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9079,9 +8201,11 @@
         <v>0</v>
       </c>
       <c r="J222" t="n">
-        <v>2625</v>
-      </c>
-      <c r="K222" t="inlineStr"/>
+        <v>2622</v>
+      </c>
+      <c r="K222" t="n">
+        <v>2615</v>
+      </c>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9120,9 +8244,11 @@
         <v>0</v>
       </c>
       <c r="J223" t="n">
-        <v>2628</v>
-      </c>
-      <c r="K223" t="inlineStr"/>
+        <v>2622</v>
+      </c>
+      <c r="K223" t="n">
+        <v>2615</v>
+      </c>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9155,15 +8281,15 @@
         <v>2634.6</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="n">
-        <v>2622</v>
-      </c>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>2615</v>
+      </c>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9196,15 +8322,15 @@
         <v>2634.25</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="n">
-        <v>2632</v>
-      </c>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>2615</v>
+      </c>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9237,15 +8363,15 @@
         <v>2633.883333333333</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
-        <v>2633</v>
-      </c>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>2615</v>
+      </c>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9278,15 +8404,15 @@
         <v>2633.333333333333</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="n">
-        <v>2631</v>
-      </c>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>2615</v>
+      </c>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9319,15 +8445,15 @@
         <v>2632.783333333333</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
-        <v>2634</v>
-      </c>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>2615</v>
+      </c>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9360,15 +8486,15 @@
         <v>2632.433333333333</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="n">
-        <v>2631</v>
-      </c>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>2615</v>
+      </c>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9401,15 +8527,15 @@
         <v>2632.083333333333</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="n">
-        <v>2631</v>
-      </c>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>2615</v>
+      </c>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9442,15 +8568,15 @@
         <v>2631.483333333333</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="n">
-        <v>2631</v>
-      </c>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>2615</v>
+      </c>
       <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9483,15 +8609,15 @@
         <v>2631.033333333333</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="n">
-        <v>2621</v>
-      </c>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>2615</v>
+      </c>
       <c r="L232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9524,15 +8650,15 @@
         <v>2630.5</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="n">
-        <v>2619</v>
-      </c>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>2615</v>
+      </c>
       <c r="L233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9565,15 +8691,15 @@
         <v>2629.95</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
-        <v>2620</v>
-      </c>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>2615</v>
+      </c>
       <c r="L234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9606,15 +8732,15 @@
         <v>2629.533333333333</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="n">
-        <v>2621</v>
-      </c>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>2615</v>
+      </c>
       <c r="L235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9647,15 +8773,15 @@
         <v>2629</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="n">
-        <v>2618</v>
-      </c>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>2615</v>
+      </c>
       <c r="L236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9688,15 +8814,15 @@
         <v>2628.366666666667</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="n">
-        <v>2615</v>
-      </c>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>2615</v>
+      </c>
       <c r="L237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9729,15 +8855,15 @@
         <v>2627.8</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="n">
-        <v>2617</v>
-      </c>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>2615</v>
+      </c>
       <c r="L238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9770,15 +8896,15 @@
         <v>2627.083333333333</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="n">
-        <v>2608</v>
-      </c>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>2615</v>
+      </c>
       <c r="L239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9811,15 +8937,15 @@
         <v>2626.466666666667</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="n">
-        <v>2613</v>
-      </c>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>2615</v>
+      </c>
       <c r="L240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9852,15 +8978,15 @@
         <v>2625.933333333333</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="n">
-        <v>2618</v>
-      </c>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>2615</v>
+      </c>
       <c r="L241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9893,15 +9019,15 @@
         <v>2625.383333333333</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="n">
-        <v>2624</v>
-      </c>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>2615</v>
+      </c>
       <c r="L242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9934,15 +9060,15 @@
         <v>2624.833333333333</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="n">
-        <v>2623</v>
-      </c>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>2615</v>
+      </c>
       <c r="L243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9975,15 +9101,15 @@
         <v>2624.383333333333</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="n">
-        <v>2631</v>
-      </c>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>2615</v>
+      </c>
       <c r="L244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10016,15 +9142,15 @@
         <v>2623.966666666667</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="n">
-        <v>2634</v>
-      </c>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>2615</v>
+      </c>
       <c r="L245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10057,15 +9183,15 @@
         <v>2623.683333333333</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="n">
-        <v>2634</v>
-      </c>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>2615</v>
+      </c>
       <c r="L246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10098,15 +9224,15 @@
         <v>2623.3</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="n">
-        <v>2637</v>
-      </c>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>2615</v>
+      </c>
       <c r="L247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10139,15 +9265,15 @@
         <v>2623</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="n">
-        <v>2628</v>
-      </c>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>2615</v>
+      </c>
       <c r="L248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10180,15 +9306,15 @@
         <v>2622.55</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="n">
-        <v>2636</v>
-      </c>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>2615</v>
+      </c>
       <c r="L249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10221,15 +9347,15 @@
         <v>2622.25</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="n">
-        <v>2632</v>
-      </c>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>2615</v>
+      </c>
       <c r="L250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10262,15 +9388,15 @@
         <v>2621.95</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="n">
-        <v>2633</v>
-      </c>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>2615</v>
+      </c>
       <c r="L251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10303,15 +9429,15 @@
         <v>2621.566666666667</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="n">
-        <v>2633</v>
-      </c>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>2615</v>
+      </c>
       <c r="L252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10344,15 +9470,15 @@
         <v>2621.5</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="n">
-        <v>2639</v>
-      </c>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>2615</v>
+      </c>
       <c r="L253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10385,15 +9511,15 @@
         <v>2621.416666666667</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="n">
-        <v>2633</v>
-      </c>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>2615</v>
+      </c>
       <c r="L254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10426,15 +9552,15 @@
         <v>2621.266666666667</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="n">
-        <v>2633</v>
-      </c>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>2615</v>
+      </c>
       <c r="L255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10467,15 +9593,15 @@
         <v>2621.283333333333</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="n">
-        <v>2633</v>
-      </c>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>2615</v>
+      </c>
       <c r="L256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10508,15 +9634,15 @@
         <v>2621.233333333333</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="n">
-        <v>2633</v>
-      </c>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>2615</v>
+      </c>
       <c r="L257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10549,15 +9675,15 @@
         <v>2621.183333333333</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="n">
-        <v>2634</v>
-      </c>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>2615</v>
+      </c>
       <c r="L258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10590,15 +9716,15 @@
         <v>2621.266666666667</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="n">
-        <v>2627</v>
-      </c>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>2615</v>
+      </c>
       <c r="L259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10631,15 +9757,15 @@
         <v>2621.4</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="n">
-        <v>2628</v>
-      </c>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>2615</v>
+      </c>
       <c r="L260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10672,15 +9798,15 @@
         <v>2621.7</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="n">
-        <v>2633</v>
-      </c>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>2615</v>
+      </c>
       <c r="L261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10713,15 +9839,15 @@
         <v>2621.75</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="n">
-        <v>2626</v>
-      </c>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>2615</v>
+      </c>
       <c r="L262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10754,15 +9880,15 @@
         <v>2621.783333333333</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="n">
-        <v>2628</v>
-      </c>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>2615</v>
+      </c>
       <c r="L263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10795,15 +9921,15 @@
         <v>2621.916666666667</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="n">
-        <v>2628</v>
-      </c>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>2615</v>
+      </c>
       <c r="L264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10836,15 +9962,15 @@
         <v>2622.516666666667</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="n">
-        <v>2636</v>
-      </c>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>2615</v>
+      </c>
       <c r="L265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10877,15 +10003,15 @@
         <v>2623.1</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="n">
-        <v>2639</v>
-      </c>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>2615</v>
+      </c>
       <c r="L266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10918,15 +10044,15 @@
         <v>2623.716666666667</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="n">
-        <v>2639</v>
-      </c>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>2615</v>
+      </c>
       <c r="L267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10959,15 +10085,15 @@
         <v>2624.3</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="n">
-        <v>2640</v>
-      </c>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>2615</v>
+      </c>
       <c r="L268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11000,15 +10126,15 @@
         <v>2624.883333333333</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="n">
-        <v>2640</v>
-      </c>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>2615</v>
+      </c>
       <c r="L269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11041,15 +10167,15 @@
         <v>2625.466666666667</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="n">
-        <v>2640</v>
-      </c>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>2615</v>
+      </c>
       <c r="L270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11082,15 +10208,15 @@
         <v>2626.183333333333</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="n">
-        <v>2645</v>
-      </c>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>2615</v>
+      </c>
       <c r="L271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11129,7 +10255,9 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>2615</v>
+      </c>
       <c r="L272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11168,7 +10296,9 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>2615</v>
+      </c>
       <c r="L273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11207,7 +10337,9 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>2615</v>
+      </c>
       <c r="L274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11246,7 +10378,9 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>2615</v>
+      </c>
       <c r="L275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11285,7 +10419,9 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>2615</v>
+      </c>
       <c r="L276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11324,7 +10460,9 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>2615</v>
+      </c>
       <c r="L277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11363,7 +10501,9 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>2615</v>
+      </c>
       <c r="L278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11402,7 +10542,9 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>2615</v>
+      </c>
       <c r="L279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11441,7 +10583,9 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>2615</v>
+      </c>
       <c r="L280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11480,7 +10624,9 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>2615</v>
+      </c>
       <c r="L281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11519,7 +10665,9 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>2615</v>
+      </c>
       <c r="L282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11558,7 +10706,9 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>2615</v>
+      </c>
       <c r="L283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11597,7 +10747,9 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>2615</v>
+      </c>
       <c r="L284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11636,7 +10788,9 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>2615</v>
+      </c>
       <c r="L285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11675,7 +10829,9 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>2615</v>
+      </c>
       <c r="L286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11714,7 +10870,9 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>2615</v>
+      </c>
       <c r="L287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11753,7 +10911,9 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>2615</v>
+      </c>
       <c r="L288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11792,7 +10952,9 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>2615</v>
+      </c>
       <c r="L289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11831,7 +10993,9 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>2615</v>
+      </c>
       <c r="L290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11870,7 +11034,9 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>2615</v>
+      </c>
       <c r="L291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11909,7 +11075,9 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>2615</v>
+      </c>
       <c r="L292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11948,7 +11116,9 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>2615</v>
+      </c>
       <c r="L293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11987,7 +11157,9 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>2615</v>
+      </c>
       <c r="L294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12026,7 +11198,9 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>2615</v>
+      </c>
       <c r="L295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12065,7 +11239,9 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>2615</v>
+      </c>
       <c r="L296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12104,7 +11280,9 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>2615</v>
+      </c>
       <c r="L297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12143,7 +11321,9 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>2615</v>
+      </c>
       <c r="L298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12182,7 +11362,9 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>2615</v>
+      </c>
       <c r="L299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12221,7 +11403,9 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>2615</v>
+      </c>
       <c r="L300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12260,7 +11444,9 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>2615</v>
+      </c>
       <c r="L301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12299,7 +11485,9 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>2615</v>
+      </c>
       <c r="L302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12338,7 +11526,9 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>2615</v>
+      </c>
       <c r="L303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12377,7 +11567,9 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>2615</v>
+      </c>
       <c r="L304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12416,7 +11608,9 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>2615</v>
+      </c>
       <c r="L305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12455,7 +11649,9 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>2615</v>
+      </c>
       <c r="L306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12494,7 +11690,9 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>2615</v>
+      </c>
       <c r="L307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12533,7 +11731,9 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>2615</v>
+      </c>
       <c r="L308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12572,7 +11772,9 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>2615</v>
+      </c>
       <c r="L309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12611,7 +11813,9 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>2615</v>
+      </c>
       <c r="L310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12650,7 +11854,9 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>2615</v>
+      </c>
       <c r="L311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12689,7 +11895,9 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>2615</v>
+      </c>
       <c r="L312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12728,7 +11936,9 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>2615</v>
+      </c>
       <c r="L313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12767,7 +11977,9 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>2615</v>
+      </c>
       <c r="L314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12806,7 +12018,9 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>2615</v>
+      </c>
       <c r="L315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12845,7 +12059,9 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>2615</v>
+      </c>
       <c r="L316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12884,7 +12100,9 @@
         <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>2615</v>
+      </c>
       <c r="L317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12923,7 +12141,9 @@
         <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>2615</v>
+      </c>
       <c r="L318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12962,7 +12182,9 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>2615</v>
+      </c>
       <c r="L319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13001,7 +12223,9 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>2615</v>
+      </c>
       <c r="L320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13040,7 +12264,9 @@
         <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>2615</v>
+      </c>
       <c r="L321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13079,7 +12305,9 @@
         <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>2615</v>
+      </c>
       <c r="L322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13112,15 +12340,15 @@
         <v>2641.766666666667</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
       </c>
-      <c r="J323" t="n">
-        <v>2630</v>
-      </c>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>2615</v>
+      </c>
       <c r="L323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13153,15 +12381,15 @@
         <v>2641.65</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
       </c>
-      <c r="J324" t="n">
-        <v>2630</v>
-      </c>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>2615</v>
+      </c>
       <c r="L324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13194,15 +12422,15 @@
         <v>2641.366666666667</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
       </c>
-      <c r="J325" t="n">
-        <v>2625</v>
-      </c>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>2615</v>
+      </c>
       <c r="L325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13235,15 +12463,15 @@
         <v>2641.133333333333</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
       </c>
-      <c r="J326" t="n">
-        <v>2625</v>
-      </c>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>2615</v>
+      </c>
       <c r="L326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13276,15 +12504,15 @@
         <v>2640.883333333333</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
       </c>
-      <c r="J327" t="n">
-        <v>2629</v>
-      </c>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>2615</v>
+      </c>
       <c r="L327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13317,15 +12545,15 @@
         <v>2640.75</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
       </c>
-      <c r="J328" t="n">
-        <v>2625</v>
-      </c>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>2615</v>
+      </c>
       <c r="L328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13358,15 +12586,15 @@
         <v>2640.75</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
       </c>
-      <c r="J329" t="n">
-        <v>2640</v>
-      </c>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>2615</v>
+      </c>
       <c r="L329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13399,15 +12627,15 @@
         <v>2640.75</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
       </c>
-      <c r="J330" t="n">
-        <v>2640</v>
-      </c>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>2615</v>
+      </c>
       <c r="L330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13440,15 +12668,15 @@
         <v>2640.833333333333</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
       </c>
-      <c r="J331" t="n">
-        <v>2649</v>
-      </c>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>2615</v>
+      </c>
       <c r="L331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13487,7 +12715,9 @@
         <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>2615</v>
+      </c>
       <c r="L332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13526,7 +12756,9 @@
         <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>2615</v>
+      </c>
       <c r="L333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13565,7 +12797,9 @@
         <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="n">
+        <v>2615</v>
+      </c>
       <c r="L334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13604,7 +12838,9 @@
         <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>2615</v>
+      </c>
       <c r="L335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13643,7 +12879,9 @@
         <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="n">
+        <v>2615</v>
+      </c>
       <c r="L336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13682,7 +12920,9 @@
         <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="n">
+        <v>2615</v>
+      </c>
       <c r="L337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13721,7 +12961,9 @@
         <v>0</v>
       </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="n">
+        <v>2615</v>
+      </c>
       <c r="L338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13760,7 +13002,9 @@
         <v>0</v>
       </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="n">
+        <v>2615</v>
+      </c>
       <c r="L339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13799,7 +13043,9 @@
         <v>0</v>
       </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="n">
+        <v>2615</v>
+      </c>
       <c r="L340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13838,7 +13084,9 @@
         <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="n">
+        <v>2615</v>
+      </c>
       <c r="L341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13877,7 +13125,9 @@
         <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="n">
+        <v>2615</v>
+      </c>
       <c r="L342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13916,7 +13166,9 @@
         <v>0</v>
       </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="n">
+        <v>2615</v>
+      </c>
       <c r="L343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13955,7 +13207,9 @@
         <v>0</v>
       </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="n">
+        <v>2615</v>
+      </c>
       <c r="L344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13994,7 +13248,9 @@
         <v>0</v>
       </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="n">
+        <v>2615</v>
+      </c>
       <c r="L345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14033,7 +13289,9 @@
         <v>0</v>
       </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="n">
+        <v>2615</v>
+      </c>
       <c r="L346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14072,7 +13330,9 @@
         <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="n">
+        <v>2615</v>
+      </c>
       <c r="L347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14111,7 +13371,9 @@
         <v>0</v>
       </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="n">
+        <v>2615</v>
+      </c>
       <c r="L348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14150,7 +13412,9 @@
         <v>0</v>
       </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="n">
+        <v>2615</v>
+      </c>
       <c r="L349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14189,7 +13453,9 @@
         <v>0</v>
       </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="n">
+        <v>2615</v>
+      </c>
       <c r="L350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14228,7 +13494,9 @@
         <v>0</v>
       </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="n">
+        <v>2615</v>
+      </c>
       <c r="L351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14267,7 +13535,9 @@
         <v>0</v>
       </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="n">
+        <v>2615</v>
+      </c>
       <c r="L352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14306,7 +13576,9 @@
         <v>0</v>
       </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="n">
+        <v>2615</v>
+      </c>
       <c r="L353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14345,7 +13617,9 @@
         <v>0</v>
       </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="n">
+        <v>2615</v>
+      </c>
       <c r="L354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14384,7 +13658,9 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="n">
+        <v>2615</v>
+      </c>
       <c r="L355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14417,15 +13693,15 @@
         <v>2640.533333333333</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
       </c>
-      <c r="J356" t="n">
-        <v>2627</v>
-      </c>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="n">
+        <v>2615</v>
+      </c>
       <c r="L356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14458,15 +13734,15 @@
         <v>2639.9</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
       </c>
-      <c r="J357" t="n">
-        <v>2618</v>
-      </c>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="n">
+        <v>2615</v>
+      </c>
       <c r="L357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14499,15 +13775,15 @@
         <v>2639.366666666667</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
       </c>
-      <c r="J358" t="n">
-        <v>2617</v>
-      </c>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="n">
+        <v>2615</v>
+      </c>
       <c r="L358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14540,15 +13816,15 @@
         <v>2638.866666666667</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
       </c>
-      <c r="J359" t="n">
-        <v>2618</v>
-      </c>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="n">
+        <v>2615</v>
+      </c>
       <c r="L359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14581,15 +13857,15 @@
         <v>2638.366666666667</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
       </c>
-      <c r="J360" t="n">
-        <v>2620</v>
-      </c>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="n">
+        <v>2615</v>
+      </c>
       <c r="L360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14622,15 +13898,15 @@
         <v>2637.883333333333</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
       </c>
-      <c r="J361" t="n">
-        <v>2620</v>
-      </c>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="n">
+        <v>2615</v>
+      </c>
       <c r="L361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14663,15 +13939,15 @@
         <v>2637.5</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
       </c>
-      <c r="J362" t="n">
-        <v>2621</v>
-      </c>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="n">
+        <v>2615</v>
+      </c>
       <c r="L362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14704,15 +13980,15 @@
         <v>2637.15</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
       </c>
-      <c r="J363" t="n">
-        <v>2617</v>
-      </c>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="n">
+        <v>2615</v>
+      </c>
       <c r="L363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14745,15 +14021,15 @@
         <v>2636.833333333333</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
       </c>
-      <c r="J364" t="n">
-        <v>2617</v>
-      </c>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="n">
+        <v>2615</v>
+      </c>
       <c r="L364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14786,15 +14062,15 @@
         <v>2636.533333333333</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
       </c>
-      <c r="J365" t="n">
-        <v>2619</v>
-      </c>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="n">
+        <v>2615</v>
+      </c>
       <c r="L365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14827,15 +14103,15 @@
         <v>2636.033333333333</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
       </c>
-      <c r="J366" t="n">
-        <v>2617</v>
-      </c>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="n">
+        <v>2615</v>
+      </c>
       <c r="L366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14868,15 +14144,15 @@
         <v>2635.75</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
       </c>
-      <c r="J367" t="n">
-        <v>2620</v>
-      </c>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="n">
+        <v>2615</v>
+      </c>
       <c r="L367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14909,15 +14185,15 @@
         <v>2635.283333333333</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
       </c>
-      <c r="J368" t="n">
-        <v>2610</v>
-      </c>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="n">
+        <v>2615</v>
+      </c>
       <c r="L368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14950,15 +14226,15 @@
         <v>2635.05</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
       </c>
-      <c r="J369" t="n">
-        <v>2622</v>
-      </c>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="n">
+        <v>2615</v>
+      </c>
       <c r="L369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14991,15 +14267,15 @@
         <v>2634.8</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
       </c>
-      <c r="J370" t="n">
-        <v>2622</v>
-      </c>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="n">
+        <v>2615</v>
+      </c>
       <c r="L370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15032,15 +14308,15 @@
         <v>2634.4</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
       </c>
-      <c r="J371" t="n">
-        <v>2613</v>
-      </c>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="n">
+        <v>2615</v>
+      </c>
       <c r="L371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15073,15 +14349,15 @@
         <v>2634.066666666667</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
       </c>
-      <c r="J372" t="n">
-        <v>2621</v>
-      </c>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="n">
+        <v>2615</v>
+      </c>
       <c r="L372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15114,15 +14390,15 @@
         <v>2633.816666666667</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
       </c>
-      <c r="J373" t="n">
-        <v>2619</v>
-      </c>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="n">
+        <v>2615</v>
+      </c>
       <c r="L373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15155,15 +14431,15 @@
         <v>2633.6</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
       </c>
-      <c r="J374" t="n">
-        <v>2621</v>
-      </c>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="n">
+        <v>2615</v>
+      </c>
       <c r="L374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15196,15 +14472,15 @@
         <v>2633.333333333333</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
       </c>
-      <c r="J375" t="n">
-        <v>2620</v>
-      </c>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="n">
+        <v>2615</v>
+      </c>
       <c r="L375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15237,15 +14513,15 @@
         <v>2633.05</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
       </c>
-      <c r="J376" t="n">
-        <v>2620</v>
-      </c>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="n">
+        <v>2615</v>
+      </c>
       <c r="L376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15278,15 +14554,15 @@
         <v>2632.783333333333</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
       </c>
-      <c r="J377" t="n">
-        <v>2621</v>
-      </c>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="n">
+        <v>2615</v>
+      </c>
       <c r="L377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15319,15 +14595,15 @@
         <v>2632.35</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
       </c>
-      <c r="J378" t="n">
-        <v>2611</v>
-      </c>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="n">
+        <v>2615</v>
+      </c>
       <c r="L378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15360,15 +14636,15 @@
         <v>2632.183333333333</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
       </c>
-      <c r="J379" t="n">
-        <v>2621</v>
-      </c>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="n">
+        <v>2615</v>
+      </c>
       <c r="L379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15401,15 +14677,15 @@
         <v>2632.033333333333</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
       </c>
-      <c r="J380" t="n">
-        <v>2621</v>
-      </c>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="n">
+        <v>2615</v>
+      </c>
       <c r="L380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15442,15 +14718,15 @@
         <v>2631.783333333333</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
       </c>
-      <c r="J381" t="n">
-        <v>2615</v>
-      </c>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="n">
+        <v>2615</v>
+      </c>
       <c r="L381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15483,15 +14759,15 @@
         <v>2631.533333333333</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
       </c>
-      <c r="J382" t="n">
-        <v>2615</v>
-      </c>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="n">
+        <v>2615</v>
+      </c>
       <c r="L382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15524,15 +14800,15 @@
         <v>2631.433333333333</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
       </c>
-      <c r="J383" t="n">
-        <v>2615</v>
-      </c>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="n">
+        <v>2615</v>
+      </c>
       <c r="L383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15565,15 +14841,15 @@
         <v>2631.216666666667</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
       </c>
-      <c r="J384" t="n">
-        <v>2612</v>
-      </c>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="n">
+        <v>2615</v>
+      </c>
       <c r="L384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15606,15 +14882,15 @@
         <v>2631.2</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
       </c>
-      <c r="J385" t="n">
-        <v>2620</v>
-      </c>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="n">
+        <v>2615</v>
+      </c>
       <c r="L385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15647,15 +14923,15 @@
         <v>2631.1</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
       </c>
-      <c r="J386" t="n">
-        <v>2619</v>
-      </c>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="n">
+        <v>2615</v>
+      </c>
       <c r="L386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15688,15 +14964,15 @@
         <v>2631.333333333333</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
       </c>
-      <c r="J387" t="n">
-        <v>2638</v>
-      </c>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="n">
+        <v>2615</v>
+      </c>
       <c r="L387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15729,15 +15005,15 @@
         <v>2631.283333333333</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
       </c>
-      <c r="J388" t="n">
-        <v>2629</v>
-      </c>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="n">
+        <v>2615</v>
+      </c>
       <c r="L388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15770,15 +15046,15 @@
         <v>2631.3</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
       </c>
-      <c r="J389" t="n">
-        <v>2639</v>
-      </c>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="n">
+        <v>2615</v>
+      </c>
       <c r="L389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15811,15 +15087,15 @@
         <v>2631.383333333333</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
       </c>
-      <c r="J390" t="n">
-        <v>2640</v>
-      </c>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="n">
+        <v>2615</v>
+      </c>
       <c r="L390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15852,15 +15128,15 @@
         <v>2631.366666666667</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
       </c>
-      <c r="J391" t="n">
-        <v>2649</v>
-      </c>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="n">
+        <v>2615</v>
+      </c>
       <c r="L391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15893,15 +15169,15 @@
         <v>2631.25</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
       </c>
-      <c r="J392" t="n">
-        <v>2649</v>
-      </c>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="n">
+        <v>2615</v>
+      </c>
       <c r="L392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15940,7 +15216,9 @@
         <v>0</v>
       </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="n">
+        <v>2615</v>
+      </c>
       <c r="L393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15979,7 +15257,9 @@
         <v>0</v>
       </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="n">
+        <v>2615</v>
+      </c>
       <c r="L394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16018,7 +15298,9 @@
         <v>0</v>
       </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="n">
+        <v>2615</v>
+      </c>
       <c r="L395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16057,7 +15339,9 @@
         <v>0</v>
       </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="n">
+        <v>2615</v>
+      </c>
       <c r="L396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16096,7 +15380,9 @@
         <v>0</v>
       </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="n">
+        <v>2615</v>
+      </c>
       <c r="L397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16135,7 +15421,9 @@
         <v>0</v>
       </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="n">
+        <v>2615</v>
+      </c>
       <c r="L398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16174,7 +15462,9 @@
         <v>0</v>
       </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="n">
+        <v>2615</v>
+      </c>
       <c r="L399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16213,7 +15503,9 @@
         <v>0</v>
       </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="n">
+        <v>2615</v>
+      </c>
       <c r="L400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16252,7 +15544,9 @@
         <v>0</v>
       </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="n">
+        <v>2615</v>
+      </c>
       <c r="L401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16291,7 +15585,9 @@
         <v>0</v>
       </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="n">
+        <v>2615</v>
+      </c>
       <c r="L402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16330,7 +15626,9 @@
         <v>0</v>
       </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="n">
+        <v>2615</v>
+      </c>
       <c r="L403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16369,7 +15667,9 @@
         <v>0</v>
       </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="n">
+        <v>2615</v>
+      </c>
       <c r="L404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16408,7 +15708,9 @@
         <v>0</v>
       </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="n">
+        <v>2615</v>
+      </c>
       <c r="L405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16447,7 +15749,9 @@
         <v>0</v>
       </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="n">
+        <v>2615</v>
+      </c>
       <c r="L406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16486,7 +15790,9 @@
         <v>0</v>
       </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="n">
+        <v>2615</v>
+      </c>
       <c r="L407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16525,7 +15831,9 @@
         <v>0</v>
       </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="n">
+        <v>2615</v>
+      </c>
       <c r="L408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16564,7 +15872,9 @@
         <v>0</v>
       </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="n">
+        <v>2615</v>
+      </c>
       <c r="L409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16603,7 +15913,9 @@
         <v>0</v>
       </c>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="n">
+        <v>2615</v>
+      </c>
       <c r="L410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16642,7 +15954,9 @@
         <v>0</v>
       </c>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="n">
+        <v>2615</v>
+      </c>
       <c r="L411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16678,16 +15992,20 @@
         <v>0</v>
       </c>
       <c r="I412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="n">
+        <v>2615</v>
+      </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M412" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M412" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
@@ -16715,11 +16033,17 @@
         <v>0</v>
       </c>
       <c r="I413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr"/>
+      <c r="K413" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -16750,11 +16074,17 @@
         <v>0</v>
       </c>
       <c r="I414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr"/>
+      <c r="K414" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -16788,8 +16118,14 @@
         <v>0</v>
       </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr"/>
+      <c r="K415" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -16823,8 +16159,14 @@
         <v>0</v>
       </c>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr"/>
+      <c r="K416" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -16858,8 +16200,14 @@
         <v>0</v>
       </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr"/>
+      <c r="K417" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -16893,8 +16241,14 @@
         <v>0</v>
       </c>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr"/>
+      <c r="K418" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -16928,8 +16282,14 @@
         <v>0</v>
       </c>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr"/>
+      <c r="K419" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -16963,8 +16323,14 @@
         <v>0</v>
       </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr"/>
+      <c r="K420" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -16998,8 +16364,14 @@
         <v>0</v>
       </c>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr"/>
+      <c r="K421" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -17033,8 +16405,14 @@
         <v>0</v>
       </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr"/>
+      <c r="K422" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -17068,8 +16446,14 @@
         <v>0</v>
       </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr"/>
+      <c r="K423" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -17103,8 +16487,14 @@
         <v>0</v>
       </c>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr"/>
+      <c r="K424" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -17138,8 +16528,14 @@
         <v>0</v>
       </c>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr"/>
+      <c r="K425" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -17173,8 +16569,14 @@
         <v>0</v>
       </c>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
-      <c r="L426" t="inlineStr"/>
+      <c r="K426" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -17208,8 +16610,14 @@
         <v>0</v>
       </c>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr"/>
+      <c r="K427" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -17243,8 +16651,14 @@
         <v>0</v>
       </c>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr"/>
+      <c r="K428" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -17278,8 +16692,14 @@
         <v>0</v>
       </c>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
-      <c r="L429" t="inlineStr"/>
+      <c r="K429" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -17313,8 +16733,14 @@
         <v>0</v>
       </c>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
-      <c r="L430" t="inlineStr"/>
+      <c r="K430" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -17348,8 +16774,14 @@
         <v>0</v>
       </c>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
-      <c r="L431" t="inlineStr"/>
+      <c r="K431" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -17383,8 +16815,14 @@
         <v>0</v>
       </c>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
-      <c r="L432" t="inlineStr"/>
+      <c r="K432" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -17418,8 +16856,14 @@
         <v>0</v>
       </c>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
-      <c r="L433" t="inlineStr"/>
+      <c r="K433" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -17453,8 +16897,14 @@
         <v>0</v>
       </c>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
-      <c r="L434" t="inlineStr"/>
+      <c r="K434" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -17488,8 +16938,14 @@
         <v>0</v>
       </c>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
-      <c r="L435" t="inlineStr"/>
+      <c r="K435" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -17523,8 +16979,14 @@
         <v>0</v>
       </c>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
-      <c r="L436" t="inlineStr"/>
+      <c r="K436" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -17558,8 +17020,14 @@
         <v>0</v>
       </c>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
-      <c r="L437" t="inlineStr"/>
+      <c r="K437" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -17593,8 +17061,14 @@
         <v>0</v>
       </c>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
-      <c r="L438" t="inlineStr"/>
+      <c r="K438" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -17628,8 +17102,14 @@
         <v>0</v>
       </c>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
-      <c r="L439" t="inlineStr"/>
+      <c r="K439" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M439" t="n">
         <v>1</v>
       </c>
@@ -17663,8 +17143,14 @@
         <v>0</v>
       </c>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
-      <c r="L440" t="inlineStr"/>
+      <c r="K440" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M440" t="n">
         <v>1</v>
       </c>
@@ -17698,8 +17184,14 @@
         <v>0</v>
       </c>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
-      <c r="L441" t="inlineStr"/>
+      <c r="K441" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M441" t="n">
         <v>1</v>
       </c>
@@ -17733,8 +17225,14 @@
         <v>0</v>
       </c>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
-      <c r="L442" t="inlineStr"/>
+      <c r="K442" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M442" t="n">
         <v>1</v>
       </c>
@@ -17768,8 +17266,14 @@
         <v>0</v>
       </c>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
-      <c r="L443" t="inlineStr"/>
+      <c r="K443" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M443" t="n">
         <v>1</v>
       </c>
@@ -17803,8 +17307,14 @@
         <v>0</v>
       </c>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
-      <c r="L444" t="inlineStr"/>
+      <c r="K444" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M444" t="n">
         <v>1</v>
       </c>
@@ -17838,8 +17348,14 @@
         <v>0</v>
       </c>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
-      <c r="L445" t="inlineStr"/>
+      <c r="K445" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M445" t="n">
         <v>1</v>
       </c>
@@ -17873,8 +17389,14 @@
         <v>0</v>
       </c>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
-      <c r="L446" t="inlineStr"/>
+      <c r="K446" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M446" t="n">
         <v>1</v>
       </c>
@@ -17908,8 +17430,14 @@
         <v>0</v>
       </c>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
-      <c r="L447" t="inlineStr"/>
+      <c r="K447" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M447" t="n">
         <v>1</v>
       </c>
@@ -17943,8 +17471,14 @@
         <v>0</v>
       </c>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
-      <c r="L448" t="inlineStr"/>
+      <c r="K448" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M448" t="n">
         <v>1</v>
       </c>
@@ -17978,8 +17512,14 @@
         <v>0</v>
       </c>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
-      <c r="L449" t="inlineStr"/>
+      <c r="K449" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M449" t="n">
         <v>1</v>
       </c>
@@ -18013,8 +17553,14 @@
         <v>0</v>
       </c>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
-      <c r="L450" t="inlineStr"/>
+      <c r="K450" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M450" t="n">
         <v>1</v>
       </c>
@@ -18048,8 +17594,14 @@
         <v>0</v>
       </c>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
-      <c r="L451" t="inlineStr"/>
+      <c r="K451" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M451" t="n">
         <v>1</v>
       </c>
@@ -18083,8 +17635,14 @@
         <v>0</v>
       </c>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
-      <c r="L452" t="inlineStr"/>
+      <c r="K452" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M452" t="n">
         <v>1</v>
       </c>
@@ -18118,8 +17676,14 @@
         <v>0</v>
       </c>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
-      <c r="L453" t="inlineStr"/>
+      <c r="K453" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M453" t="n">
         <v>1</v>
       </c>
@@ -18153,8 +17717,14 @@
         <v>0</v>
       </c>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
-      <c r="L454" t="inlineStr"/>
+      <c r="K454" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -18188,8 +17758,14 @@
         <v>0</v>
       </c>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
-      <c r="L455" t="inlineStr"/>
+      <c r="K455" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -18223,8 +17799,14 @@
         <v>0</v>
       </c>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
-      <c r="L456" t="inlineStr"/>
+      <c r="K456" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -18258,8 +17840,14 @@
         <v>0</v>
       </c>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
-      <c r="L457" t="inlineStr"/>
+      <c r="K457" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M457" t="n">
         <v>1</v>
       </c>
@@ -18293,8 +17881,14 @@
         <v>0</v>
       </c>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
-      <c r="L458" t="inlineStr"/>
+      <c r="K458" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M458" t="n">
         <v>1</v>
       </c>
@@ -18328,8 +17922,14 @@
         <v>0</v>
       </c>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
-      <c r="L459" t="inlineStr"/>
+      <c r="K459" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -18363,8 +17963,14 @@
         <v>0</v>
       </c>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
-      <c r="L460" t="inlineStr"/>
+      <c r="K460" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -18398,8 +18004,14 @@
         <v>0</v>
       </c>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
-      <c r="L461" t="inlineStr"/>
+      <c r="K461" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -18433,8 +18045,14 @@
         <v>0</v>
       </c>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
-      <c r="L462" t="inlineStr"/>
+      <c r="K462" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -18468,8 +18086,14 @@
         <v>0</v>
       </c>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
-      <c r="L463" t="inlineStr"/>
+      <c r="K463" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M463" t="n">
         <v>1</v>
       </c>
@@ -18503,8 +18127,14 @@
         <v>0</v>
       </c>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
-      <c r="L464" t="inlineStr"/>
+      <c r="K464" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M464" t="n">
         <v>1</v>
       </c>
@@ -18538,8 +18168,14 @@
         <v>0</v>
       </c>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
-      <c r="L465" t="inlineStr"/>
+      <c r="K465" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M465" t="n">
         <v>1</v>
       </c>
@@ -18573,8 +18209,14 @@
         <v>0</v>
       </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
-      <c r="L466" t="inlineStr"/>
+      <c r="K466" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -18608,8 +18250,14 @@
         <v>0</v>
       </c>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
-      <c r="L467" t="inlineStr"/>
+      <c r="K467" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M467" t="n">
         <v>1</v>
       </c>
@@ -18643,8 +18291,14 @@
         <v>0</v>
       </c>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
-      <c r="L468" t="inlineStr"/>
+      <c r="K468" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M468" t="n">
         <v>1</v>
       </c>
@@ -18678,8 +18332,14 @@
         <v>0</v>
       </c>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
-      <c r="L469" t="inlineStr"/>
+      <c r="K469" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M469" t="n">
         <v>1</v>
       </c>
@@ -18710,13 +18370,19 @@
         <v>0</v>
       </c>
       <c r="I470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
-      <c r="L470" t="inlineStr"/>
+      <c r="K470" t="n">
+        <v>2615</v>
+      </c>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M470" t="n">
-        <v>1</v>
+        <v>1.055803059273423</v>
       </c>
     </row>
     <row r="471">
@@ -18745,7 +18411,7 @@
         <v>0</v>
       </c>
       <c r="I471" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr"/>
@@ -18780,7 +18446,7 @@
         <v>0</v>
       </c>
       <c r="I472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr"/>
@@ -18815,7 +18481,7 @@
         <v>0</v>
       </c>
       <c r="I473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr"/>
@@ -18850,7 +18516,7 @@
         <v>0</v>
       </c>
       <c r="I474" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr"/>

--- a/BackTest/2019-11-14 BackTest QTUM.xlsx
+++ b/BackTest/2019-11-14 BackTest QTUM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-33011.45314889</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-32616.5642267</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>2536</v>
@@ -523,7 +523,7 @@
         <v>-32540.9294267</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>2537</v>
@@ -562,7 +562,7 @@
         <v>-32729.4599267</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>2538</v>
@@ -601,7 +601,7 @@
         <v>-32724.4599267</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>2535</v>
@@ -640,7 +640,7 @@
         <v>-32012.3007267</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>2539</v>
@@ -679,7 +679,7 @@
         <v>-32012.3007267</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>2543</v>
@@ -718,7 +718,7 @@
         <v>-32012.3007267</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>2543</v>
@@ -757,7 +757,7 @@
         <v>-32100.0187267</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>2543</v>
@@ -796,7 +796,7 @@
         <v>-32135.0573267</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>2541</v>
@@ -835,7 +835,7 @@
         <v>-32527.8063267</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>2540</v>
@@ -874,7 +874,7 @@
         <v>-32291.9753267</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>2536</v>
@@ -913,11 +913,9 @@
         <v>-31875.8204267</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2544</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
@@ -952,11 +950,9 @@
         <v>-30518.4849267</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2545</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
@@ -991,11 +987,9 @@
         <v>-30417.6849267</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2546</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
@@ -1030,11 +1024,9 @@
         <v>-30415.7179267</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2548</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
@@ -1069,11 +1061,9 @@
         <v>-31804.8357267</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2549</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
@@ -1108,11 +1098,9 @@
         <v>-31137.0596267</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2548</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
@@ -1147,11 +1135,9 @@
         <v>-31137.0596267</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2549</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
@@ -1186,9 +1172,11 @@
         <v>-31212.0825267</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2549</v>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
@@ -1223,11 +1211,9 @@
         <v>-31338.3549267</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2546</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
@@ -1262,11 +1248,9 @@
         <v>-31188.0862267</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2538</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
@@ -1523,11 +1507,9 @@
         <v>-24898.7473267</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2565</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
@@ -1562,11 +1544,9 @@
         <v>-24263.7473267</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>2569</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
@@ -1601,11 +1581,9 @@
         <v>-24263.7473267</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" t="n">
-        <v>2574</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -1640,11 +1618,9 @@
         <v>-24263.7473267</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2574</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -3159,7 +3135,7 @@
         <v>54648.83281712001</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3196,7 +3172,7 @@
         <v>54317.18251712001</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3233,7 +3209,7 @@
         <v>55429.43021712001</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3307,7 +3283,7 @@
         <v>53344.56411712001</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3344,7 +3320,7 @@
         <v>53101.30611712001</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3381,7 +3357,7 @@
         <v>53903.96231712001</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3418,7 +3394,7 @@
         <v>53903.96231712001</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3455,7 +3431,7 @@
         <v>52162.02121712001</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3492,7 +3468,7 @@
         <v>52219.48121712001</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3529,7 +3505,7 @@
         <v>52219.48121712001</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3566,7 +3542,7 @@
         <v>52084.91111712001</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3603,7 +3579,7 @@
         <v>52005.74761712001</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3640,7 +3616,7 @@
         <v>52007.74761712001</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3677,7 +3653,7 @@
         <v>53291.45521712001</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -17626,16 +17602,18 @@
         <v>91036.83300699007</v>
       </c>
       <c r="H465" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L465" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L465" t="n">
+        <v>1</v>
+      </c>
       <c r="M465" t="inlineStr"/>
     </row>
     <row r="466">
@@ -17661,11 +17639,15 @@
         <v>90573.23880699006</v>
       </c>
       <c r="H466" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17698,7 +17680,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17731,7 +17717,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17764,7 +17754,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17797,7 +17791,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17830,7 +17828,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17863,7 +17865,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17892,11 +17898,15 @@
         <v>106930.3158069901</v>
       </c>
       <c r="H473" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17925,11 +17935,15 @@
         <v>106092.2246069901</v>
       </c>
       <c r="H474" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17958,11 +17972,15 @@
         <v>103714.5109069901</v>
       </c>
       <c r="H475" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17995,7 +18013,11 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -18028,7 +18050,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -18061,7 +18087,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18094,7 +18124,11 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -18127,7 +18161,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18160,7 +18198,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -18193,7 +18235,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18226,7 +18272,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18259,7 +18309,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18288,11 +18342,15 @@
         <v>98918.76597730009</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18325,7 +18383,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18354,11 +18416,15 @@
         <v>99986.8297773001</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18387,11 +18453,15 @@
         <v>95755.89527730009</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18420,11 +18490,15 @@
         <v>95839.15987730009</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18457,7 +18531,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18486,11 +18564,15 @@
         <v>95312.94487730009</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18519,11 +18601,15 @@
         <v>95518.83667730009</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18552,11 +18638,15 @@
         <v>94629.36147730009</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18585,11 +18675,15 @@
         <v>94934.89267730009</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18618,11 +18712,15 @@
         <v>95020.18997730009</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18651,11 +18749,15 @@
         <v>94725.04987730009</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18684,11 +18786,15 @@
         <v>93698.07517730008</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18721,7 +18827,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18750,11 +18860,15 @@
         <v>94027.78317730008</v>
       </c>
       <c r="H499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18783,11 +18897,15 @@
         <v>93221.63077730007</v>
       </c>
       <c r="H500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18816,11 +18934,15 @@
         <v>93084.68357730008</v>
       </c>
       <c r="H501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18849,11 +18971,15 @@
         <v>93741.50727730007</v>
       </c>
       <c r="H502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18882,11 +19008,15 @@
         <v>93741.50727730007</v>
       </c>
       <c r="H503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18915,11 +19045,15 @@
         <v>93741.50727730007</v>
       </c>
       <c r="H504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18948,11 +19082,15 @@
         <v>94921.81307730007</v>
       </c>
       <c r="H505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18985,7 +19123,11 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -19018,7 +19160,11 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -19051,7 +19197,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -19084,7 +19234,11 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -19117,7 +19271,11 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -19150,7 +19308,11 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -19183,7 +19345,11 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -19216,7 +19382,11 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -19249,7 +19419,11 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -19282,7 +19456,11 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -19315,7 +19493,11 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -19348,7 +19530,11 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -19381,7 +19567,11 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -19414,7 +19604,11 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -19447,7 +19641,11 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -19480,7 +19678,11 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -19513,7 +19715,11 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -19546,7 +19752,11 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -19579,7 +19789,11 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -19612,7 +19826,11 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -19645,7 +19863,11 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -19678,7 +19900,11 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -19707,11 +19933,15 @@
         <v>122131.8807053501</v>
       </c>
       <c r="H528" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19740,11 +19970,15 @@
         <v>122846.3012053501</v>
       </c>
       <c r="H529" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -19773,11 +20007,15 @@
         <v>122464.1461017401</v>
       </c>
       <c r="H530" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -19806,11 +20044,15 @@
         <v>122464.1461017401</v>
       </c>
       <c r="H531" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -19839,11 +20081,15 @@
         <v>120724.5595017401</v>
       </c>
       <c r="H532" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -19872,11 +20118,15 @@
         <v>119204.1915017401</v>
       </c>
       <c r="H533" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -19905,11 +20155,15 @@
         <v>120592.2373017401</v>
       </c>
       <c r="H534" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -19938,11 +20192,15 @@
         <v>112023.8440471901</v>
       </c>
       <c r="H535" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -19971,14 +20229,16 @@
         <v>108401.0085471901</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
-      <c r="L536" t="n">
-        <v>1</v>
-      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L536" t="inlineStr"/>
       <c r="M536" t="inlineStr"/>
     </row>
     <row r="537">
@@ -20004,7 +20264,7 @@
         <v>106257.1328773101</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -20037,7 +20297,7 @@
         <v>106617.3320773101</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -20070,7 +20330,7 @@
         <v>107491.5808773101</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -20103,7 +20363,7 @@
         <v>106003.2426773101</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -20136,7 +20396,7 @@
         <v>103657.8997773101</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -20169,7 +20429,7 @@
         <v>103657.8997773101</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -20202,7 +20462,7 @@
         <v>103957.8997773101</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -20235,7 +20495,7 @@
         <v>103152.6732773101</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -20268,7 +20528,7 @@
         <v>100763.4404773101</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -20301,7 +20561,7 @@
         <v>100975.6857773101</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -20334,7 +20594,7 @@
         <v>100976.5726773101</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -20367,7 +20627,7 @@
         <v>105206.4861773101</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -20400,7 +20660,7 @@
         <v>105534.4473773101</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -20433,7 +20693,7 @@
         <v>102307.1486773101</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -20466,7 +20726,7 @@
         <v>102587.3862773101</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -20499,7 +20759,7 @@
         <v>102691.4521773101</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -20532,7 +20792,7 @@
         <v>102552.5664773101</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -20565,7 +20825,7 @@
         <v>103154.4846773101</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20631,7 +20891,7 @@
         <v>103926.3569773101</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -20664,7 +20924,7 @@
         <v>103925.5175612601</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -20730,7 +20990,7 @@
         <v>103598.9269612601</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -20796,7 +21056,7 @@
         <v>104825.4126612601</v>
       </c>
       <c r="H561" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -20862,7 +21122,7 @@
         <v>105347.2674612601</v>
       </c>
       <c r="H563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -21225,7 +21485,7 @@
         <v>110182.3555612601</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -21258,7 +21518,7 @@
         <v>110168.3555612601</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -21291,7 +21551,7 @@
         <v>110168.3555612601</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -21324,7 +21584,7 @@
         <v>110098.3015612601</v>
       </c>
       <c r="H577" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -21357,7 +21617,7 @@
         <v>110257.5100612601</v>
       </c>
       <c r="H578" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -21390,7 +21650,7 @@
         <v>108500.3082612601</v>
       </c>
       <c r="H579" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -21423,7 +21683,7 @@
         <v>108500.3082612601</v>
       </c>
       <c r="H580" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -21456,7 +21716,7 @@
         <v>108617.2477170801</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -21489,7 +21749,7 @@
         <v>111372.0348170801</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -21522,7 +21782,7 @@
         <v>111372.0348170801</v>
       </c>
       <c r="H583" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -21555,7 +21815,7 @@
         <v>111206.8181170801</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -21720,7 +21980,7 @@
         <v>110843.3283070301</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -21753,7 +22013,7 @@
         <v>111093.2106070301</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -21786,7 +22046,7 @@
         <v>111093.2106070301</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -21819,7 +22079,7 @@
         <v>111093.2106070301</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -21852,7 +22112,7 @@
         <v>109990.5106070301</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -21885,7 +22145,7 @@
         <v>109991.5106070301</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -21918,7 +22178,7 @@
         <v>109991.5106070301</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -21951,7 +22211,7 @@
         <v>109991.5106070301</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -21984,7 +22244,7 @@
         <v>109834.3836070301</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -22248,7 +22508,7 @@
         <v>105557.87213185</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -22281,7 +22541,7 @@
         <v>105627.05063185</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -22314,7 +22574,7 @@
         <v>105591.49533185</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -22347,7 +22607,7 @@
         <v>105851.07053185</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -22380,7 +22640,7 @@
         <v>105301.58163185</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -22413,7 +22673,7 @@
         <v>105301.58163185</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -22446,7 +22706,7 @@
         <v>105301.58163185</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -22479,7 +22739,7 @@
         <v>105240.20423185</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -22512,7 +22772,7 @@
         <v>105226.68183185</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -22545,7 +22805,7 @@
         <v>105226.68183185</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -22578,7 +22838,7 @@
         <v>105225.19073185</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -22611,7 +22871,7 @@
         <v>104681.04113185</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -22644,7 +22904,7 @@
         <v>104681.04113185</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -22655,6 +22915,6 @@
       <c r="M617" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-14 BackTest QTUM.xlsx
+++ b/BackTest/2019-11-14 BackTest QTUM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-33011.45314889</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,592 +484,550 @@
         <v>-32616.5642267</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2538</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2538</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2538</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2538</v>
+      </c>
+      <c r="F4" t="n">
+        <v>75.6348</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-32540.9294267</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2538</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2535</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2538</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2535</v>
+      </c>
+      <c r="F5" t="n">
+        <v>188.5305</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-32729.4599267</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2539</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2539</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2539</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2539</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-32724.4599267</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2540</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2543</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2543</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2540</v>
+      </c>
+      <c r="F7" t="n">
+        <v>712.1592000000001</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-32012.3007267</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2539</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2539</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2543</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2543</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2543</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2543</v>
+      </c>
+      <c r="F8" t="n">
+        <v>882</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-32012.3007267</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>2539</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2544</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2543</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2544</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2543</v>
+      </c>
+      <c r="F9" t="n">
+        <v>71.4081</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-32012.3007267</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>2539</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2543</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2541</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2543</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2541</v>
+      </c>
+      <c r="F10" t="n">
+        <v>87.718</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-32100.0187267</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2540</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2540</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2540</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2540</v>
+      </c>
+      <c r="F11" t="n">
+        <v>35.0386</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-32135.0573267</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2539</v>
+      </c>
+      <c r="C12" t="n">
         <v>2536</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
+      <c r="D12" t="n">
+        <v>2539</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2536</v>
+      </c>
+      <c r="F12" t="n">
+        <v>392.749</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-32527.8063267</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2544</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2544</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2544</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2544</v>
+      </c>
+      <c r="F13" t="n">
+        <v>235.831</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-32291.9753267</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2536</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2536</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2545</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2545</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2546</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2545</v>
+      </c>
+      <c r="F14" t="n">
+        <v>416.1549</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-31875.8204267</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>2536</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2545</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2546</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2546</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2545</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1357.3355</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-30518.4849267</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2545</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2536</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2548</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2548</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2548</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2548</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-30417.6849267</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2549</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2549</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2549</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2549</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.967</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-30415.7179267</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2548</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2548</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2549</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2548</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2549</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2548</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1389.1178</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-31804.8357267</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>2548</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2538</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2538</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2538</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2538</v>
-      </c>
-      <c r="F4" t="n">
-        <v>75.6348</v>
-      </c>
-      <c r="G4" t="n">
-        <v>-32540.9294267</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2537</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2538</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2535</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2538</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2535</v>
-      </c>
-      <c r="F5" t="n">
-        <v>188.5305</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-32729.4599267</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2538</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2539</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2539</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2539</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2539</v>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-32724.4599267</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2535</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2540</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2543</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2543</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2540</v>
-      </c>
-      <c r="F7" t="n">
-        <v>712.1592000000001</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-32012.3007267</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2539</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2543</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2543</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2543</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2543</v>
-      </c>
-      <c r="F8" t="n">
-        <v>882</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-32012.3007267</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2543</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2544</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2543</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2544</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2543</v>
-      </c>
-      <c r="F9" t="n">
-        <v>71.4081</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-32012.3007267</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2543</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>2543</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2541</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2543</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2541</v>
-      </c>
-      <c r="F10" t="n">
-        <v>87.718</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-32100.0187267</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2543</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2540</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2540</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2540</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2540</v>
-      </c>
-      <c r="F11" t="n">
-        <v>35.0386</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-32135.0573267</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2541</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2539</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2536</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2539</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2536</v>
-      </c>
-      <c r="F12" t="n">
-        <v>392.749</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-32527.8063267</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2540</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2544</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2544</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2544</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2544</v>
-      </c>
-      <c r="F13" t="n">
-        <v>235.831</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-32291.9753267</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2536</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>2545</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2545</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2546</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2545</v>
-      </c>
-      <c r="F14" t="n">
-        <v>416.1549</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-31875.8204267</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>2545</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2546</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2546</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2545</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1357.3355</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-30518.4849267</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>2548</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2548</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2548</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2548</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-30417.6849267</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>2549</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2549</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2549</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2549</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1.967</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-30415.7179267</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>2549</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2548</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2549</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2548</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1389.1178</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-31804.8357267</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1101,7 +1059,9 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>2548</v>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1138,7 +1098,9 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>2548</v>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1172,12 +1134,12 @@
         <v>-31212.0825267</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2549</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>2548</v>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1214,7 +1176,9 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>2548</v>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1248,10 +1212,14 @@
         <v>-31188.0862267</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2538</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2548</v>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1285,10 +1253,14 @@
         <v>-29926.8759267</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2548</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2548</v>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1322,10 +1294,14 @@
         <v>-28556.4759267</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2554</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2548</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1359,10 +1335,14 @@
         <v>-27175.7450267</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2557</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2548</v>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1396,10 +1376,14 @@
         <v>-27175.7450267</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2558</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2548</v>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1433,10 +1417,14 @@
         <v>-26129.1162267</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2558</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2548</v>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1470,10 +1458,14 @@
         <v>-25955.1162267</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2564</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2548</v>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1507,10 +1499,14 @@
         <v>-24898.7473267</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2565</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2548</v>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1544,10 +1540,14 @@
         <v>-24263.7473267</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2569</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2548</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1581,10 +1581,14 @@
         <v>-24263.7473267</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2574</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2548</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1618,10 +1622,14 @@
         <v>-24263.7473267</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2574</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2548</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1655,10 +1663,14 @@
         <v>-24263.7473267</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2574</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2548</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1692,10 +1704,14 @@
         <v>-23500.3073267</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2574</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2548</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1732,7 +1748,9 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>2548</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1769,7 +1787,9 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>2548</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1806,7 +1826,9 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>2548</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1843,7 +1865,9 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>2548</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1880,7 +1904,9 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>2548</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1917,7 +1943,9 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>2548</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1954,7 +1982,9 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>2548</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1991,7 +2021,9 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>2548</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2028,7 +2060,9 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>2548</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2065,7 +2099,9 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>2548</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2102,7 +2138,9 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>2548</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2139,7 +2177,9 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>2548</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2176,7 +2216,9 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>2548</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2213,7 +2255,9 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>2548</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2250,7 +2294,9 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>2548</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2287,7 +2333,9 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>2548</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2324,7 +2372,9 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>2548</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2361,7 +2411,9 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>2548</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2398,7 +2450,9 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>2548</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2432,17 +2486,19 @@
         <v>28503.47982368</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>2548</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1</v>
+        <v>1.034246467817896</v>
       </c>
       <c r="M55" t="inlineStr"/>
     </row>
@@ -2469,15 +2525,11 @@
         <v>28503.47982368</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2506,15 +2558,11 @@
         <v>24975.61532368</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2543,15 +2591,11 @@
         <v>27292.63012368</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2580,15 +2624,11 @@
         <v>31294.57442368</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2617,15 +2657,11 @@
         <v>28379.49782368</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2654,15 +2690,11 @@
         <v>26243.34122368</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2691,15 +2723,11 @@
         <v>38691.60798371</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2728,15 +2756,11 @@
         <v>37860.34281712001</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2765,15 +2789,11 @@
         <v>36468.68321712001</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2802,15 +2822,11 @@
         <v>36468.68321712001</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2839,15 +2855,11 @@
         <v>37103.00911712001</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2876,15 +2888,11 @@
         <v>36694.90761712001</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2913,15 +2921,11 @@
         <v>36694.90761712001</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2950,15 +2954,11 @@
         <v>39828.84871712001</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2987,15 +2987,11 @@
         <v>45035.98231712001</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3024,15 +3020,11 @@
         <v>41607.55601712001</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3061,15 +3053,11 @@
         <v>44469.46211712001</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3098,15 +3086,11 @@
         <v>44810.38221712002</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3135,15 +3119,11 @@
         <v>54648.83281712001</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3172,15 +3152,11 @@
         <v>54317.18251712001</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3209,15 +3185,11 @@
         <v>55429.43021712001</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3246,15 +3218,11 @@
         <v>53729.60711712001</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3283,15 +3251,11 @@
         <v>53344.56411712001</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3320,15 +3284,11 @@
         <v>53101.30611712001</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3357,15 +3317,11 @@
         <v>53903.96231712001</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3394,15 +3350,11 @@
         <v>53903.96231712001</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3431,15 +3383,11 @@
         <v>52162.02121712001</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3468,15 +3416,11 @@
         <v>52219.48121712001</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3505,15 +3449,11 @@
         <v>52219.48121712001</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3542,15 +3482,11 @@
         <v>52084.91111712001</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3579,15 +3515,11 @@
         <v>52005.74761712001</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3616,15 +3548,11 @@
         <v>52007.74761712001</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3653,15 +3581,11 @@
         <v>53291.45521712001</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3690,15 +3614,11 @@
         <v>51549.59321712001</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3731,11 +3651,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3768,11 +3684,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3805,11 +3717,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3842,11 +3750,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3879,11 +3783,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3916,11 +3816,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3953,11 +3849,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3990,11 +3882,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4023,15 +3911,11 @@
         <v>47029.54131712001</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4064,11 +3948,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4101,11 +3981,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4138,11 +4014,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4175,11 +4047,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4212,11 +4080,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4249,11 +4113,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4286,11 +4146,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4323,11 +4179,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4360,11 +4212,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4397,11 +4245,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4434,11 +4278,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4471,11 +4311,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4508,11 +4344,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4545,11 +4377,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4582,11 +4410,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4619,11 +4443,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4656,11 +4476,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4693,11 +4509,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4730,11 +4542,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4767,11 +4575,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4804,11 +4608,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4841,11 +4641,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4878,11 +4674,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4915,11 +4707,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4952,11 +4740,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4989,11 +4773,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5026,11 +4806,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5063,11 +4839,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5100,11 +4872,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5137,11 +4905,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5174,11 +4938,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5211,11 +4971,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5248,11 +5004,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5285,11 +5037,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5322,11 +5070,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5359,11 +5103,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5396,11 +5136,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5433,11 +5169,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5470,11 +5202,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5507,11 +5235,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5544,11 +5268,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5581,11 +5301,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5618,11 +5334,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5655,11 +5367,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5692,11 +5400,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5729,11 +5433,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5766,11 +5466,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5803,11 +5499,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5840,11 +5532,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5877,11 +5565,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5914,11 +5598,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5951,11 +5631,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5988,11 +5664,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6025,11 +5697,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6062,11 +5730,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6099,11 +5763,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6136,11 +5796,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6173,11 +5829,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6210,11 +5862,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6247,11 +5895,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6284,11 +5928,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6321,11 +5961,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6358,11 +5994,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6395,11 +6027,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6432,11 +6060,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6469,11 +6093,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6506,11 +6126,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6543,11 +6159,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6580,11 +6192,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6617,11 +6225,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6654,11 +6258,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6691,11 +6291,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6728,11 +6324,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6765,11 +6357,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6802,11 +6390,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6839,11 +6423,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6876,11 +6456,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6913,11 +6489,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6950,11 +6522,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6987,11 +6555,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7024,11 +6588,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7061,11 +6621,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7098,11 +6654,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7135,11 +6687,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7172,11 +6720,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7209,11 +6753,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7246,11 +6786,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7283,11 +6819,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7320,11 +6852,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7357,11 +6885,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7394,11 +6918,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7431,11 +6951,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7468,11 +6984,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7505,11 +7017,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7542,11 +7050,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7579,11 +7083,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7616,11 +7116,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7653,11 +7149,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7690,11 +7182,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7727,11 +7215,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7764,11 +7248,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7801,11 +7281,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7838,11 +7314,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7875,11 +7347,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7912,11 +7380,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7949,11 +7413,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7986,11 +7446,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8023,11 +7479,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8060,11 +7512,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8097,11 +7545,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8134,11 +7578,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8171,11 +7611,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8208,11 +7644,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8245,11 +7677,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8282,11 +7710,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8319,11 +7743,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8356,11 +7776,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8393,11 +7809,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8430,11 +7842,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8467,11 +7875,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8504,11 +7908,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8541,11 +7941,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8578,11 +7974,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8615,11 +8007,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8652,11 +8040,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8689,11 +8073,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8726,11 +8106,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8763,11 +8139,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8800,11 +8172,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8837,11 +8205,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8874,11 +8238,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8911,11 +8271,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8948,11 +8304,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8985,11 +8337,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9022,11 +8370,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9059,11 +8403,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9096,11 +8436,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9133,11 +8469,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9170,11 +8502,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9207,11 +8535,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9244,11 +8568,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9281,11 +8601,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9318,11 +8634,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9355,11 +8667,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9392,11 +8700,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9429,11 +8733,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9466,11 +8766,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9503,11 +8799,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9540,11 +8832,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9577,11 +8865,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9614,11 +8898,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9651,11 +8931,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9688,11 +8964,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9725,11 +8997,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9762,11 +9030,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9799,11 +9063,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9836,11 +9096,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9873,11 +9129,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9910,11 +9162,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9947,11 +9195,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9984,11 +9228,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10021,11 +9261,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10058,11 +9294,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10095,11 +9327,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10132,11 +9360,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10169,11 +9393,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10206,11 +9426,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10243,11 +9459,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10280,11 +9492,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10317,11 +9525,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10354,11 +9558,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10391,11 +9591,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10428,11 +9624,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10465,11 +9657,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10502,11 +9690,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10539,11 +9723,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10576,11 +9756,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10613,11 +9789,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10650,11 +9822,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10687,11 +9855,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10724,11 +9888,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10761,11 +9921,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10798,11 +9954,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10835,11 +9987,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10872,11 +10020,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10909,11 +10053,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10946,11 +10086,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10983,11 +10119,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11020,11 +10152,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11057,11 +10185,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11094,11 +10218,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11131,11 +10251,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11168,11 +10284,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11205,11 +10317,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11242,11 +10350,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11279,11 +10383,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11316,11 +10416,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11353,11 +10449,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11390,11 +10482,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11427,11 +10515,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11464,11 +10548,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11501,11 +10581,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11538,11 +10614,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11575,11 +10647,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11612,11 +10680,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11649,11 +10713,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11686,11 +10746,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11723,11 +10779,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11760,11 +10812,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11797,11 +10845,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11834,11 +10878,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11871,11 +10911,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11908,11 +10944,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11945,11 +10977,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11982,11 +11010,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12019,11 +11043,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12056,11 +11076,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12093,11 +11109,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12130,11 +11142,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12167,11 +11175,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12204,11 +11208,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12241,11 +11241,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12278,11 +11274,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12315,11 +11307,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12352,11 +11340,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12389,11 +11373,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12426,11 +11406,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12463,11 +11439,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12500,11 +11472,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12537,11 +11505,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12574,11 +11538,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12611,11 +11571,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12648,11 +11604,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12685,11 +11637,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12722,11 +11670,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12759,11 +11703,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12796,11 +11736,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12833,11 +11769,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12870,11 +11802,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12907,11 +11835,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12944,11 +11868,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12981,11 +11901,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13018,11 +11934,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13055,11 +11967,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13092,11 +12000,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13129,11 +12033,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13166,11 +12066,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13203,11 +12099,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13240,11 +12132,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13277,11 +12165,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13314,11 +12198,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13351,11 +12231,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13388,11 +12264,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13425,11 +12297,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13462,11 +12330,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13499,11 +12363,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13536,11 +12396,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13573,11 +12429,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13610,11 +12462,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13647,11 +12495,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13684,11 +12528,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13721,11 +12561,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13758,11 +12594,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13795,11 +12627,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13832,11 +12660,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13869,11 +12693,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13906,11 +12726,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13943,11 +12759,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13980,11 +12792,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14017,11 +12825,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14054,11 +12858,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14091,11 +12891,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14128,11 +12924,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14165,11 +12957,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14202,11 +12990,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14239,11 +13023,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14276,11 +13056,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14313,11 +13089,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14350,11 +13122,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14387,11 +13155,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14424,11 +13188,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14461,11 +13221,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14498,11 +13254,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14535,11 +13287,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14572,11 +13320,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14609,11 +13353,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14646,11 +13386,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14683,11 +13419,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14720,11 +13452,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14757,11 +13485,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14794,11 +13518,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14831,11 +13551,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14868,11 +13584,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14905,11 +13617,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14942,11 +13650,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14979,11 +13683,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15016,11 +13716,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15053,11 +13749,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15090,11 +13782,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15127,11 +13815,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15164,11 +13848,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15201,11 +13881,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15238,11 +13914,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15275,11 +13947,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15312,11 +13980,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15349,11 +14013,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15386,11 +14046,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15423,11 +14079,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15460,11 +14112,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15497,11 +14145,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15534,11 +14178,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15571,11 +14211,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15608,11 +14244,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15645,11 +14277,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15682,11 +14310,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15719,11 +14343,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15756,11 +14376,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15793,11 +14409,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15830,11 +14442,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15867,11 +14475,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15904,11 +14508,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15941,11 +14541,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15978,11 +14574,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16015,11 +14607,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16052,11 +14640,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16089,11 +14673,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16126,11 +14706,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16163,11 +14739,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16200,11 +14772,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16237,11 +14805,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16274,11 +14838,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16311,11 +14871,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16348,11 +14904,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16385,11 +14937,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16422,11 +14970,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16459,11 +15003,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16496,11 +15036,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16533,11 +15069,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16570,11 +15102,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16607,11 +15135,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16644,11 +15168,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16681,11 +15201,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16718,11 +15234,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16755,11 +15267,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16792,11 +15300,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16829,11 +15333,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16866,11 +15366,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16903,11 +15399,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16940,11 +15432,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16977,11 +15465,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17014,11 +15498,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17051,11 +15531,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17088,11 +15564,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17125,11 +15597,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17162,11 +15630,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17199,11 +15663,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17236,11 +15696,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17273,11 +15729,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17310,11 +15762,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17347,11 +15795,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17384,11 +15828,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17421,11 +15861,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17458,11 +15894,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17495,11 +15927,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17532,11 +15960,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17569,11 +15993,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17606,11 +16026,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17643,11 +16059,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17680,11 +16092,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17717,11 +16125,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17750,15 +16154,11 @@
         <v>101176.1898069901</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17787,15 +16187,11 @@
         <v>101169.1755069901</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17828,11 +16224,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17865,11 +16257,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17902,11 +16290,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17939,11 +16323,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17976,11 +16356,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -18009,15 +16385,11 @@
         <v>101817.6672069901</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -18046,15 +16418,11 @@
         <v>98630.49460699008</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -18083,15 +16451,11 @@
         <v>98162.46270699007</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18120,15 +16484,11 @@
         <v>98381.50360699008</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -18161,11 +16521,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18194,15 +16550,11 @@
         <v>98946.46350699008</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -18235,11 +16587,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18272,11 +16620,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18309,11 +16653,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18346,11 +16686,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18383,11 +16719,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18420,11 +16752,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18457,11 +16785,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18490,15 +16814,11 @@
         <v>95839.15987730009</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18531,11 +16851,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18568,11 +16884,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18605,11 +16917,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18642,11 +16950,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18679,11 +16983,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18716,11 +17016,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18753,11 +17049,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18790,11 +17082,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18827,11 +17115,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18864,11 +17148,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18901,11 +17181,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18938,11 +17214,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18975,11 +17247,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -19012,11 +17280,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -19049,11 +17313,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -19086,11 +17346,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -19123,11 +17379,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -19160,11 +17412,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -19197,11 +17445,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -19234,11 +17478,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -19271,11 +17511,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -19308,11 +17544,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -19345,11 +17577,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -19382,11 +17610,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -19419,11 +17643,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -19456,11 +17676,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -19493,11 +17709,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -19530,11 +17742,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -19567,11 +17775,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -19604,11 +17808,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -19641,11 +17841,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -19678,11 +17874,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -19715,11 +17907,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -19752,11 +17940,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -19789,11 +17973,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -19826,11 +18006,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -19863,11 +18039,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -19900,11 +18072,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -19937,11 +18105,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19974,11 +18138,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -20011,11 +18171,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -20048,11 +18204,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -20085,11 +18237,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -20122,11 +18270,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -20159,11 +18303,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -20196,11 +18336,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -20229,16 +18365,14 @@
         <v>108401.0085471901</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
+      <c r="L536" t="n">
+        <v>1</v>
+      </c>
       <c r="M536" t="inlineStr"/>
     </row>
     <row r="537">
@@ -20264,7 +18398,7 @@
         <v>106257.1328773101</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -20297,7 +18431,7 @@
         <v>106617.3320773101</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -20330,7 +18464,7 @@
         <v>107491.5808773101</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -20363,7 +18497,7 @@
         <v>106003.2426773101</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -20396,7 +18530,7 @@
         <v>103657.8997773101</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -20429,7 +18563,7 @@
         <v>103657.8997773101</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -20462,7 +18596,7 @@
         <v>103957.8997773101</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -20495,7 +18629,7 @@
         <v>103152.6732773101</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -20528,7 +18662,7 @@
         <v>100763.4404773101</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -20561,7 +18695,7 @@
         <v>100975.6857773101</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -20594,7 +18728,7 @@
         <v>100976.5726773101</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -20627,7 +18761,7 @@
         <v>105206.4861773101</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -20660,7 +18794,7 @@
         <v>105534.4473773101</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -20693,7 +18827,7 @@
         <v>102307.1486773101</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -20726,7 +18860,7 @@
         <v>102587.3862773101</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -20759,7 +18893,7 @@
         <v>102691.4521773101</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -20792,7 +18926,7 @@
         <v>102552.5664773101</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -20825,7 +18959,7 @@
         <v>103154.4846773101</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -21485,7 +19619,7 @@
         <v>110182.3555612601</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -21518,7 +19652,7 @@
         <v>110168.3555612601</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -21551,7 +19685,7 @@
         <v>110168.3555612601</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -21584,7 +19718,7 @@
         <v>110098.3015612601</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -21617,7 +19751,7 @@
         <v>110257.5100612601</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -21650,7 +19784,7 @@
         <v>108500.3082612601</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -21683,7 +19817,7 @@
         <v>108500.3082612601</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -21716,7 +19850,7 @@
         <v>108617.2477170801</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -21749,7 +19883,7 @@
         <v>111372.0348170801</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -21782,7 +19916,7 @@
         <v>111372.0348170801</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -21815,7 +19949,7 @@
         <v>111206.8181170801</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -21980,7 +20114,7 @@
         <v>110843.3283070301</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -22013,7 +20147,7 @@
         <v>111093.2106070301</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -22046,7 +20180,7 @@
         <v>111093.2106070301</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -22079,7 +20213,7 @@
         <v>111093.2106070301</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -22112,7 +20246,7 @@
         <v>109990.5106070301</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -22145,7 +20279,7 @@
         <v>109991.5106070301</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -22178,7 +20312,7 @@
         <v>109991.5106070301</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -22211,7 +20345,7 @@
         <v>109991.5106070301</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -22244,7 +20378,7 @@
         <v>109834.3836070301</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -22508,7 +20642,7 @@
         <v>105557.87213185</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -22541,7 +20675,7 @@
         <v>105627.05063185</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -22574,7 +20708,7 @@
         <v>105591.49533185</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -22607,7 +20741,7 @@
         <v>105851.07053185</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -22640,7 +20774,7 @@
         <v>105301.58163185</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -22673,7 +20807,7 @@
         <v>105301.58163185</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -22706,7 +20840,7 @@
         <v>105301.58163185</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -22739,7 +20873,7 @@
         <v>105240.20423185</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -22772,7 +20906,7 @@
         <v>105226.68183185</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -22805,7 +20939,7 @@
         <v>105226.68183185</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -22838,7 +20972,7 @@
         <v>105225.19073185</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -22871,7 +21005,7 @@
         <v>104681.04113185</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -22904,7 +21038,7 @@
         <v>104681.04113185</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -22915,6 +21049,6 @@
       <c r="M617" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-14 BackTest QTUM.xlsx
+++ b/BackTest/2019-11-14 BackTest QTUM.xlsx
@@ -451,7 +451,7 @@
         <v>-33011.45314889</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>-32616.5642267</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2536</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>-32540.9294267</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2537</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>-32729.4599267</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2538</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +601,17 @@
         <v>-32724.4599267</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2535</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -621,10 +645,12 @@
       <c r="I7" t="n">
         <v>2539</v>
       </c>
-      <c r="J7" t="n">
-        <v>2539</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -653,15 +679,15 @@
         <v>-32012.3007267</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>2539</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2543</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -692,15 +718,15 @@
         <v>-32012.3007267</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>2539</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2543</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -731,11 +757,17 @@
         <v>-32100.0187267</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2543</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -764,11 +796,17 @@
         <v>-32135.0573267</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2541</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -797,11 +835,17 @@
         <v>-32527.8063267</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2540</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -835,10 +879,12 @@
       <c r="I13" t="n">
         <v>2536</v>
       </c>
-      <c r="J13" t="n">
-        <v>2536</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -867,15 +913,15 @@
         <v>-31875.8204267</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>2536</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2544</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -911,12 +957,10 @@
       <c r="I15" t="n">
         <v>2545</v>
       </c>
-      <c r="J15" t="n">
-        <v>2536</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -947,11 +991,17 @@
         <v>-30417.6849267</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2546</v>
+      </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -985,10 +1035,12 @@
       <c r="I17" t="n">
         <v>2548</v>
       </c>
-      <c r="J17" t="n">
-        <v>2548</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1017,15 +1069,15 @@
         <v>-31804.8357267</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>2548</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2549</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -1056,12 +1108,12 @@
         <v>-31137.0596267</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
         <v>2548</v>
       </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1095,12 +1147,12 @@
         <v>-31137.0596267</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>2548</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2549</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1134,12 +1186,12 @@
         <v>-31212.0825267</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>2548</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2549</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1173,12 +1225,12 @@
         <v>-31338.3549267</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>2548</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2546</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1217,9 +1269,7 @@
       <c r="I23" t="n">
         <v>2538</v>
       </c>
-      <c r="J23" t="n">
-        <v>2548</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1258,9 +1308,7 @@
       <c r="I24" t="n">
         <v>2548</v>
       </c>
-      <c r="J24" t="n">
-        <v>2548</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1299,9 +1347,7 @@
       <c r="I25" t="n">
         <v>2554</v>
       </c>
-      <c r="J25" t="n">
-        <v>2548</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1335,14 +1381,10 @@
         <v>-27175.7450267</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>2557</v>
-      </c>
-      <c r="J26" t="n">
-        <v>2548</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1376,14 +1418,10 @@
         <v>-27175.7450267</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2558</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2548</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1417,14 +1455,10 @@
         <v>-26129.1162267</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2558</v>
-      </c>
-      <c r="J28" t="n">
-        <v>2548</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1458,14 +1492,10 @@
         <v>-25955.1162267</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2564</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2548</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1499,14 +1529,10 @@
         <v>-24898.7473267</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2565</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2548</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1540,14 +1566,10 @@
         <v>-24263.7473267</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>2569</v>
-      </c>
-      <c r="J31" t="n">
-        <v>2548</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1581,14 +1603,10 @@
         <v>-24263.7473267</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>2574</v>
-      </c>
-      <c r="J32" t="n">
-        <v>2548</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1622,14 +1640,10 @@
         <v>-24263.7473267</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2574</v>
-      </c>
-      <c r="J33" t="n">
-        <v>2548</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1663,14 +1677,10 @@
         <v>-24263.7473267</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>2574</v>
-      </c>
-      <c r="J34" t="n">
-        <v>2548</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1704,14 +1714,10 @@
         <v>-23500.3073267</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>2574</v>
-      </c>
-      <c r="J35" t="n">
-        <v>2548</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1748,9 +1754,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>2548</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1787,9 +1791,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>2548</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1826,9 +1828,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>2548</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1865,9 +1865,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>2548</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1904,9 +1902,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>2548</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1943,9 +1939,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>2548</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1982,9 +1976,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>2548</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2021,9 +2013,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>2548</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2060,9 +2050,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>2548</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2099,9 +2087,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>2548</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2138,9 +2124,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>2548</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2177,9 +2161,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>2548</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2216,9 +2198,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>2548</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2255,9 +2235,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>2548</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2294,9 +2272,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>2548</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2333,9 +2309,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>2548</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2372,9 +2346,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>2548</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2411,9 +2383,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>2548</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2450,9 +2420,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>2548</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2486,19 +2454,17 @@
         <v>28503.47982368</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>2548</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.034246467817896</v>
+        <v>1</v>
       </c>
       <c r="M55" t="inlineStr"/>
     </row>
@@ -2525,11 +2491,15 @@
         <v>28503.47982368</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2558,11 +2528,15 @@
         <v>24975.61532368</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2591,11 +2565,15 @@
         <v>27292.63012368</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2624,11 +2602,15 @@
         <v>31294.57442368</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2657,11 +2639,15 @@
         <v>28379.49782368</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2690,11 +2676,15 @@
         <v>26243.34122368</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2723,11 +2713,15 @@
         <v>38691.60798371</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2756,11 +2750,15 @@
         <v>37860.34281712001</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2789,11 +2787,15 @@
         <v>36468.68321712001</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2822,11 +2824,15 @@
         <v>36468.68321712001</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2855,11 +2861,15 @@
         <v>37103.00911712001</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2888,11 +2898,15 @@
         <v>36694.90761712001</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2921,11 +2935,15 @@
         <v>36694.90761712001</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2954,11 +2972,15 @@
         <v>39828.84871712001</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2987,11 +3009,15 @@
         <v>45035.98231712001</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3020,11 +3046,15 @@
         <v>41607.55601712001</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3053,11 +3083,15 @@
         <v>44469.46211712001</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3086,11 +3120,15 @@
         <v>44810.38221712002</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3119,11 +3157,15 @@
         <v>54648.83281712001</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3152,11 +3194,15 @@
         <v>54317.18251712001</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3185,11 +3231,15 @@
         <v>55429.43021712001</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3218,11 +3268,15 @@
         <v>53729.60711712001</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3251,11 +3305,15 @@
         <v>53344.56411712001</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3284,11 +3342,15 @@
         <v>53101.30611712001</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3317,11 +3379,15 @@
         <v>53903.96231712001</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3350,11 +3416,15 @@
         <v>53903.96231712001</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3383,11 +3453,15 @@
         <v>52162.02121712001</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3416,11 +3490,15 @@
         <v>52219.48121712001</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3449,11 +3527,15 @@
         <v>52219.48121712001</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3482,11 +3564,15 @@
         <v>52084.91111712001</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3515,11 +3601,15 @@
         <v>52005.74761712001</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3548,11 +3638,15 @@
         <v>52007.74761712001</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3581,11 +3675,15 @@
         <v>53291.45521712001</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3614,11 +3712,15 @@
         <v>51549.59321712001</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3651,7 +3753,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3684,7 +3790,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3717,7 +3827,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3750,7 +3864,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3783,7 +3901,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3816,7 +3938,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3849,7 +3975,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3882,7 +4012,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3911,11 +4045,15 @@
         <v>47029.54131712001</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3948,7 +4086,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3981,7 +4123,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4014,7 +4160,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4047,7 +4197,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4080,7 +4234,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4113,7 +4271,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4146,7 +4308,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4179,7 +4345,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4212,7 +4382,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4245,7 +4419,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4278,7 +4456,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4311,7 +4493,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4344,7 +4530,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4377,7 +4567,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4410,7 +4604,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4443,7 +4641,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4476,7 +4678,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4509,7 +4715,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4542,7 +4752,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4575,7 +4789,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4608,7 +4826,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4641,7 +4863,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4674,7 +4900,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4707,7 +4937,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4740,7 +4974,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4773,7 +5011,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4806,7 +5048,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4839,7 +5085,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4872,7 +5122,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4905,7 +5159,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4938,7 +5196,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4971,7 +5233,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5004,7 +5270,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5037,7 +5307,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5070,7 +5344,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5103,7 +5381,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5136,7 +5418,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5169,7 +5455,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5202,7 +5492,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5235,7 +5529,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5268,7 +5566,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5301,7 +5603,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5334,7 +5640,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5367,7 +5677,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5400,7 +5714,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5433,7 +5751,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5466,7 +5788,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5499,7 +5825,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5532,7 +5862,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5565,7 +5899,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5598,7 +5936,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5631,7 +5973,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5664,7 +6010,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5697,7 +6047,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5730,7 +6084,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5763,7 +6121,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5796,7 +6158,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5829,7 +6195,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5862,7 +6232,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5895,7 +6269,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5928,7 +6306,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5961,7 +6343,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5994,7 +6380,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6027,7 +6417,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6060,7 +6454,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6093,7 +6491,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6126,7 +6528,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6159,7 +6565,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6192,7 +6602,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6225,7 +6639,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6258,7 +6676,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6291,7 +6713,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6324,7 +6750,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6357,7 +6787,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6390,7 +6824,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6423,7 +6861,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6456,7 +6898,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6489,7 +6935,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6522,7 +6972,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6555,7 +7009,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6588,7 +7046,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6621,7 +7083,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6654,7 +7120,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6687,7 +7157,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6720,7 +7194,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6753,7 +7231,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6786,7 +7268,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6819,7 +7305,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6852,7 +7342,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6885,7 +7379,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6918,7 +7416,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6951,7 +7453,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6984,7 +7490,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7017,7 +7527,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7050,7 +7564,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7083,7 +7601,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7116,7 +7638,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7149,7 +7675,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7182,7 +7712,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7215,7 +7749,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7248,7 +7786,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7281,7 +7823,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7314,7 +7860,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7347,7 +7897,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7380,7 +7934,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7413,7 +7971,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7446,7 +8008,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7479,7 +8045,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7512,7 +8082,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7545,7 +8119,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7578,7 +8156,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7611,7 +8193,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7644,7 +8230,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7677,7 +8267,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7710,7 +8304,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7743,7 +8341,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7776,7 +8378,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7809,7 +8415,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7842,7 +8452,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7875,7 +8489,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7908,7 +8526,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7941,7 +8563,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7974,7 +8600,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8007,7 +8637,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8040,7 +8674,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8073,7 +8711,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8106,7 +8748,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8139,7 +8785,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8172,7 +8822,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8205,7 +8859,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8238,7 +8896,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8271,7 +8933,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8304,7 +8970,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8337,7 +9007,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8370,7 +9044,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8403,7 +9081,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8436,7 +9118,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8469,7 +9155,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8502,7 +9192,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8535,7 +9229,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8568,7 +9266,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8601,7 +9303,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8634,7 +9340,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8667,7 +9377,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8700,7 +9414,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8733,7 +9451,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8766,7 +9488,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8799,7 +9525,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8832,7 +9562,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8865,7 +9599,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8898,7 +9636,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8931,7 +9673,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8964,7 +9710,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8997,7 +9747,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9030,7 +9784,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9063,7 +9821,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9096,7 +9858,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9129,7 +9895,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9162,7 +9932,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9195,7 +9969,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9228,7 +10006,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9261,7 +10043,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9294,7 +10080,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9327,7 +10117,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9360,7 +10154,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9393,7 +10191,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9426,7 +10228,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9459,7 +10265,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9492,7 +10302,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9525,7 +10339,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9558,7 +10376,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9591,7 +10413,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9624,7 +10450,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9657,7 +10487,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9690,7 +10524,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9723,7 +10561,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9756,7 +10598,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9789,7 +10635,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9822,7 +10672,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9855,7 +10709,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9888,7 +10746,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9921,7 +10783,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9954,7 +10820,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9987,7 +10857,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10020,7 +10894,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10053,7 +10931,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10086,7 +10968,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10119,7 +11005,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10152,7 +11042,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10185,7 +11079,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10218,7 +11116,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10251,7 +11153,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10284,7 +11190,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10317,7 +11227,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10350,7 +11264,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10383,7 +11301,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10416,7 +11338,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10449,7 +11375,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10482,7 +11412,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10515,7 +11449,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10548,7 +11486,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10581,7 +11523,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10614,7 +11560,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10647,7 +11597,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10680,7 +11634,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10713,7 +11671,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10746,7 +11708,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10779,7 +11745,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10812,7 +11782,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10845,7 +11819,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10878,7 +11856,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10911,7 +11893,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10944,7 +11930,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10977,7 +11967,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11010,7 +12004,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11043,7 +12041,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11076,7 +12078,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11109,7 +12115,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11142,7 +12152,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11175,7 +12189,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11208,7 +12226,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11241,7 +12263,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11274,7 +12300,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11307,7 +12337,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11340,7 +12374,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11373,7 +12411,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11406,7 +12448,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11439,7 +12485,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11472,7 +12522,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11505,7 +12559,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11538,7 +12596,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11571,7 +12633,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11604,7 +12670,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11637,7 +12707,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11670,7 +12744,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11703,7 +12781,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11736,7 +12818,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11769,7 +12855,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11802,7 +12892,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11835,7 +12929,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11868,7 +12966,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11901,7 +13003,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11934,7 +13040,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11967,7 +13077,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12000,7 +13114,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12033,7 +13151,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12066,7 +13188,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12099,7 +13225,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12132,7 +13262,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12165,7 +13299,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12198,7 +13336,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12231,7 +13373,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12264,7 +13410,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12297,7 +13447,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12330,7 +13484,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12363,7 +13521,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12396,7 +13558,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12429,7 +13595,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12462,7 +13632,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12495,7 +13669,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12528,7 +13706,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12561,7 +13743,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12594,7 +13780,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12627,7 +13817,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12660,7 +13854,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12693,7 +13891,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12726,7 +13928,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12759,7 +13965,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12792,7 +14002,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12825,7 +14039,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12858,7 +14076,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12891,7 +14113,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12924,7 +14150,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12957,7 +14187,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12990,7 +14224,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13023,7 +14261,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13056,7 +14298,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13089,7 +14335,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13122,7 +14372,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13155,7 +14409,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13188,7 +14446,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13221,7 +14483,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13254,7 +14520,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13287,7 +14557,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13320,7 +14594,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13353,7 +14631,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13386,7 +14668,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13419,7 +14705,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13452,7 +14742,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13485,7 +14779,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13518,7 +14816,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13551,7 +14853,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13584,7 +14890,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13617,7 +14927,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13650,7 +14964,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13683,7 +15001,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13716,7 +15038,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13749,7 +15075,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13782,7 +15112,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13815,7 +15149,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13848,7 +15186,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13881,7 +15223,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13914,7 +15260,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13947,7 +15297,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13980,7 +15334,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14013,7 +15371,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14046,7 +15408,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14079,7 +15445,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14112,7 +15482,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14145,7 +15519,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14178,7 +15556,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14211,7 +15593,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14244,7 +15630,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14277,7 +15667,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14310,7 +15704,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14343,7 +15741,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14376,7 +15778,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14409,7 +15815,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14442,7 +15852,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14475,7 +15889,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14508,7 +15926,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14541,7 +15963,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14574,7 +16000,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14607,7 +16037,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14640,7 +16074,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14673,7 +16111,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14706,7 +16148,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14739,7 +16185,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14772,7 +16222,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14805,7 +16259,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14838,7 +16296,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14871,7 +16333,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14904,7 +16370,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14937,7 +16407,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14970,7 +16444,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15003,7 +16481,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15036,7 +16518,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15069,7 +16555,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15102,7 +16592,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15135,7 +16629,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15168,7 +16666,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15201,7 +16703,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15234,7 +16740,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15267,7 +16777,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15300,7 +16814,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15333,7 +16851,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15366,7 +16888,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15399,7 +16925,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15432,7 +16962,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15465,7 +16999,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15498,7 +17036,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15531,7 +17073,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15564,7 +17110,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15597,7 +17147,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15630,7 +17184,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15663,7 +17221,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15696,7 +17258,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15729,7 +17295,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15762,7 +17332,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15795,7 +17369,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15828,7 +17406,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15861,7 +17443,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15894,7 +17480,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15927,7 +17517,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15960,7 +17554,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15993,7 +17591,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16026,7 +17628,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16059,7 +17665,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16092,7 +17702,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16125,7 +17739,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16154,11 +17772,15 @@
         <v>101176.1898069901</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16187,11 +17809,15 @@
         <v>101169.1755069901</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16224,7 +17850,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16257,7 +17887,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16290,7 +17924,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16323,7 +17961,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16356,7 +17998,11 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16385,11 +18031,15 @@
         <v>101817.6672069901</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16418,11 +18068,15 @@
         <v>98630.49460699008</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16451,11 +18105,15 @@
         <v>98162.46270699007</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16484,11 +18142,15 @@
         <v>98381.50360699008</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16521,7 +18183,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16550,11 +18216,15 @@
         <v>98946.46350699008</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16587,7 +18257,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16620,7 +18294,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16653,7 +18331,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16686,7 +18368,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16719,7 +18405,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16752,7 +18442,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16785,7 +18479,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16814,11 +18512,15 @@
         <v>95839.15987730009</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16851,7 +18553,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16884,7 +18590,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16917,7 +18627,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16950,7 +18664,11 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16983,7 +18701,11 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17016,7 +18738,11 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17049,7 +18775,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17082,7 +18812,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17115,7 +18849,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17148,7 +18886,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17181,7 +18923,11 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17214,7 +18960,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17247,7 +18997,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17280,7 +19034,11 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17313,7 +19071,11 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17346,7 +19108,11 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17379,7 +19145,11 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17412,7 +19182,11 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17445,7 +19219,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17478,7 +19256,11 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17511,7 +19293,11 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17544,7 +19330,11 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17577,7 +19367,11 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17610,7 +19404,11 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17643,7 +19441,11 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17676,7 +19478,11 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17709,7 +19515,11 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17742,7 +19552,11 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17775,7 +19589,11 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17808,7 +19626,11 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17841,7 +19663,11 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17874,7 +19700,11 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17907,7 +19737,11 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17940,7 +19774,11 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17973,7 +19811,11 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18006,7 +19848,11 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18039,7 +19885,11 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18072,7 +19922,11 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18101,14 +19955,16 @@
         <v>122131.8807053501</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
-      <c r="L528" t="n">
-        <v>1</v>
-      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L528" t="inlineStr"/>
       <c r="M528" t="inlineStr"/>
     </row>
     <row r="529">
@@ -18134,7 +19990,7 @@
         <v>122846.3012053501</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18167,7 +20023,7 @@
         <v>122464.1461017401</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18200,7 +20056,7 @@
         <v>122464.1461017401</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18233,7 +20089,7 @@
         <v>120724.5595017401</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18266,7 +20122,7 @@
         <v>119204.1915017401</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18299,7 +20155,7 @@
         <v>120592.2373017401</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18332,7 +20188,7 @@
         <v>112023.8440471901</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18365,7 +20221,7 @@
         <v>108401.0085471901</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18398,7 +20254,7 @@
         <v>106257.1328773101</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18431,7 +20287,7 @@
         <v>106617.3320773101</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18464,7 +20320,7 @@
         <v>107491.5808773101</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18497,7 +20353,7 @@
         <v>106003.2426773101</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18530,7 +20386,7 @@
         <v>103657.8997773101</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18563,7 +20419,7 @@
         <v>103657.8997773101</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18596,7 +20452,7 @@
         <v>103957.8997773101</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18629,7 +20485,7 @@
         <v>103152.6732773101</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18662,7 +20518,7 @@
         <v>100763.4404773101</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18695,7 +20551,7 @@
         <v>100975.6857773101</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18728,7 +20584,7 @@
         <v>100976.5726773101</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18761,7 +20617,7 @@
         <v>105206.4861773101</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18794,7 +20650,7 @@
         <v>105534.4473773101</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18827,7 +20683,7 @@
         <v>102307.1486773101</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18860,7 +20716,7 @@
         <v>102587.3862773101</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18893,7 +20749,7 @@
         <v>102691.4521773101</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18926,7 +20782,7 @@
         <v>102552.5664773101</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18959,7 +20815,7 @@
         <v>103154.4846773101</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18992,7 +20848,7 @@
         <v>103612.1779773101</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19025,7 +20881,7 @@
         <v>103926.3569773101</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19058,7 +20914,7 @@
         <v>103925.5175612601</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19091,7 +20947,7 @@
         <v>103828.3175612601</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19124,7 +20980,7 @@
         <v>103598.9269612601</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19157,7 +21013,7 @@
         <v>104825.4126612601</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -19190,7 +21046,7 @@
         <v>104825.4126612601</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19223,7 +21079,7 @@
         <v>106175.8305612601</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19256,7 +21112,7 @@
         <v>105347.2674612601</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19289,7 +21145,7 @@
         <v>105351.0461612601</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19322,7 +21178,7 @@
         <v>105069.5591612601</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19355,7 +21211,7 @@
         <v>106571.9032963601</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19388,7 +21244,7 @@
         <v>106373.0944963601</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19421,7 +21277,7 @@
         <v>109295.5296612601</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19454,7 +21310,7 @@
         <v>109295.5296612601</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19487,7 +21343,7 @@
         <v>109295.5296612601</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19520,7 +21376,7 @@
         <v>109295.5296612601</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19553,7 +21409,7 @@
         <v>109117.4869612601</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19586,7 +21442,7 @@
         <v>109114.6869612601</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19619,7 +21475,7 @@
         <v>110182.3555612601</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19652,7 +21508,7 @@
         <v>110168.3555612601</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19685,7 +21541,7 @@
         <v>110168.3555612601</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19718,7 +21574,7 @@
         <v>110098.3015612601</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19751,7 +21607,7 @@
         <v>110257.5100612601</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19784,7 +21640,7 @@
         <v>108500.3082612601</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19817,7 +21673,7 @@
         <v>108500.3082612601</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -20048,7 +21904,7 @@
         <v>111208.4406070301</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -20081,7 +21937,7 @@
         <v>110708.4148070301</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -20147,7 +22003,7 @@
         <v>111093.2106070301</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -20180,7 +22036,7 @@
         <v>111093.2106070301</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -20213,7 +22069,7 @@
         <v>111093.2106070301</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -20246,7 +22102,7 @@
         <v>109990.5106070301</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -20279,7 +22135,7 @@
         <v>109991.5106070301</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20312,7 +22168,7 @@
         <v>109991.5106070301</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20345,7 +22201,7 @@
         <v>109991.5106070301</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20411,7 +22267,7 @@
         <v>109832.2493070301</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20510,7 +22366,7 @@
         <v>108268.8128318501</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
